--- a/FuseLinks/Ghendyano.xlsx
+++ b/FuseLinks/Ghendyano.xlsx
@@ -5556,7 +5556,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S155"/>
+  <dimension ref="A1:S169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6577,17 +6577,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>25KVA</t>
+          <t>15KVA</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Curto ABC Terra</t>
+          <t>Funcionamento Normal</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>BT Consumidor</t>
+          <t>Funcionamento Normal</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -6665,7 +6665,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Curto ABC</t>
+          <t>Curto ABC Terra</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -6748,7 +6748,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Curto AB Terra</t>
+          <t>Curto ABC</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -6831,7 +6831,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Curto AB</t>
+          <t>Curto AB Terra</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -6914,7 +6914,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Curto AC Terra</t>
+          <t>Curto AB</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -6997,7 +6997,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Curto AC</t>
+          <t>Curto AC Terra</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -7080,7 +7080,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Curto BC Terra</t>
+          <t>Curto AC</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -7163,7 +7163,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Curto BC</t>
+          <t>Curto BC Terra</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -7246,7 +7246,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Curto A Terra</t>
+          <t>Curto BC</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -7329,7 +7329,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Curto B Terra</t>
+          <t>Curto A Terra</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -7412,7 +7412,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Curto C Terra</t>
+          <t>Curto B Terra</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -7490,12 +7490,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>30KVA</t>
+          <t>25KVA</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Curto ABC Terra</t>
+          <t>Curto C Terra</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -7505,7 +7505,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2H</t>
+          <t>1H</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -7573,22 +7573,22 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>30KVA</t>
+          <t>25KVA</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Curto ABC</t>
+          <t>Funcionamento Normal</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>BT Consumidor</t>
+          <t>Funcionamento Normal</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2H</t>
+          <t>1H</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -7661,7 +7661,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Curto AB Terra</t>
+          <t>Curto ABC Terra</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -7744,7 +7744,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Curto AB</t>
+          <t>Curto ABC</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -7827,7 +7827,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Curto AC Terra</t>
+          <t>Curto AB Terra</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -7910,7 +7910,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Curto AC</t>
+          <t>Curto AB</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -7993,7 +7993,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Curto BC Terra</t>
+          <t>Curto AC Terra</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -8076,7 +8076,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Curto BC</t>
+          <t>Curto AC</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -8159,7 +8159,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Curto A Terra</t>
+          <t>Curto BC Terra</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -8242,7 +8242,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Curto B Terra</t>
+          <t>Curto BC</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -8325,7 +8325,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Curto C Terra</t>
+          <t>Curto A Terra</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -8403,12 +8403,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>37.5KVA</t>
+          <t>30KVA</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Curto ABC Terra</t>
+          <t>Curto B Terra</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -8423,61 +8423,75 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2H</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>3.72878</v>
+          <t>1H</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="G35" t="n">
-        <v>15.9309</v>
-      </c>
-      <c r="H35" t="n">
-        <v>3.7163</v>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="I35" t="n">
-        <v>15.9557</v>
-      </c>
-      <c r="J35" t="n">
-        <v>3.69501</v>
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="K35" t="n">
-        <v>15.9984</v>
-      </c>
-      <c r="L35" t="n">
-        <v>3.71034</v>
+        <v>0</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="M35" t="n">
-        <v>15.9676</v>
-      </c>
-      <c r="N35" t="n">
-        <v>3.73181</v>
+        <v>0</v>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="O35" t="n">
-        <v>15.9249</v>
-      </c>
-      <c r="P35" t="n">
-        <v>3.71034</v>
+        <v>0</v>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="Q35" t="n">
-        <v>15.9676</v>
-      </c>
-      <c r="R35" t="n">
-        <v>3.73181</v>
+        <v>0</v>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="S35" t="n">
-        <v>15.9249</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>37.5KVA</t>
+          <t>30KVA</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Curto ABC</t>
+          <t>Curto C Terra</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -8492,66 +8506,80 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2H</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>3.72878</v>
+          <t>1H</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="G36" t="n">
-        <v>15.9309</v>
-      </c>
-      <c r="H36" t="n">
-        <v>3.7163</v>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="I36" t="n">
-        <v>15.9557</v>
-      </c>
-      <c r="J36" t="n">
-        <v>3.69501</v>
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="K36" t="n">
-        <v>15.9984</v>
-      </c>
-      <c r="L36" t="n">
-        <v>3.71034</v>
+        <v>0</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="M36" t="n">
-        <v>15.9676</v>
-      </c>
-      <c r="N36" t="n">
-        <v>3.73181</v>
+        <v>0</v>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="O36" t="n">
-        <v>15.9249</v>
-      </c>
-      <c r="P36" t="n">
-        <v>3.71034</v>
+        <v>0</v>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="Q36" t="n">
-        <v>15.9676</v>
-      </c>
-      <c r="R36" t="n">
-        <v>3.73181</v>
+        <v>0</v>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="S36" t="n">
-        <v>15.9249</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>37.5KVA</t>
+          <t>30KVA</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Curto AB Terra</t>
+          <t>Funcionamento Normal</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>BT Consumidor</t>
+          <t>Funcionamento Normal</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -8561,50 +8589,64 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2H</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>3.72878</v>
+          <t>1H</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="G37" t="n">
-        <v>15.9309</v>
-      </c>
-      <c r="H37" t="n">
-        <v>3.7163</v>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="I37" t="n">
-        <v>15.9557</v>
-      </c>
-      <c r="J37" t="n">
-        <v>3.69501</v>
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="K37" t="n">
-        <v>15.9984</v>
-      </c>
-      <c r="L37" t="n">
-        <v>3.71034</v>
+        <v>0</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="M37" t="n">
-        <v>15.9676</v>
-      </c>
-      <c r="N37" t="n">
-        <v>3.73181</v>
+        <v>0</v>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="O37" t="n">
-        <v>15.9249</v>
-      </c>
-      <c r="P37" t="n">
-        <v>3.71034</v>
+        <v>0</v>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="Q37" t="n">
-        <v>15.9676</v>
-      </c>
-      <c r="R37" t="n">
-        <v>3.73181</v>
+        <v>0</v>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="S37" t="n">
-        <v>15.9249</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -8615,7 +8657,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Curto AB</t>
+          <t>Curto ABC Terra</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -8684,7 +8726,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Curto AC Terra</t>
+          <t>Curto ABC</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -8753,7 +8795,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Curto AC</t>
+          <t>Curto AB Terra</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -8822,7 +8864,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Curto BC Terra</t>
+          <t>Curto AB</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -8891,7 +8933,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Curto BC</t>
+          <t>Curto AC Terra</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -8960,7 +9002,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Curto A Terra</t>
+          <t>Curto AC</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -9029,7 +9071,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Curto B Terra</t>
+          <t>Curto BC Terra</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -9098,7 +9140,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Curto C Terra</t>
+          <t>Curto BC</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -9162,12 +9204,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>45KVA</t>
+          <t>37.5KVA</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Curto ABC Terra</t>
+          <t>Curto A Terra</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -9186,57 +9228,57 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2.13455</v>
+        <v>3.72878</v>
       </c>
       <c r="G46" t="n">
-        <v>20.7444</v>
+        <v>15.9309</v>
       </c>
       <c r="H46" t="n">
-        <v>2.12663</v>
+        <v>3.7163</v>
       </c>
       <c r="I46" t="n">
-        <v>20.7814</v>
+        <v>15.9557</v>
       </c>
       <c r="J46" t="n">
-        <v>2.11585</v>
+        <v>3.69501</v>
       </c>
       <c r="K46" t="n">
-        <v>20.8322</v>
+        <v>15.9984</v>
       </c>
       <c r="L46" t="n">
-        <v>2.12467</v>
+        <v>3.71034</v>
       </c>
       <c r="M46" t="n">
-        <v>20.7906</v>
+        <v>15.9676</v>
       </c>
       <c r="N46" t="n">
-        <v>2.13555</v>
+        <v>3.73181</v>
       </c>
       <c r="O46" t="n">
-        <v>20.7397</v>
+        <v>15.9249</v>
       </c>
       <c r="P46" t="n">
-        <v>2.12467</v>
+        <v>3.71034</v>
       </c>
       <c r="Q46" t="n">
-        <v>20.7906</v>
+        <v>15.9676</v>
       </c>
       <c r="R46" t="n">
-        <v>2.13555</v>
+        <v>3.73181</v>
       </c>
       <c r="S46" t="n">
-        <v>20.7397</v>
+        <v>15.9249</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>45KVA</t>
+          <t>37.5KVA</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Curto ABC</t>
+          <t>Curto B Terra</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -9255,57 +9297,57 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2.13455</v>
+        <v>3.72878</v>
       </c>
       <c r="G47" t="n">
-        <v>20.7444</v>
+        <v>15.9309</v>
       </c>
       <c r="H47" t="n">
-        <v>2.12663</v>
+        <v>3.7163</v>
       </c>
       <c r="I47" t="n">
-        <v>20.7814</v>
+        <v>15.9557</v>
       </c>
       <c r="J47" t="n">
-        <v>2.11585</v>
+        <v>3.69501</v>
       </c>
       <c r="K47" t="n">
-        <v>20.8322</v>
+        <v>15.9984</v>
       </c>
       <c r="L47" t="n">
-        <v>2.12467</v>
+        <v>3.71034</v>
       </c>
       <c r="M47" t="n">
-        <v>20.7906</v>
+        <v>15.9676</v>
       </c>
       <c r="N47" t="n">
-        <v>2.13555</v>
+        <v>3.73181</v>
       </c>
       <c r="O47" t="n">
-        <v>20.7397</v>
+        <v>15.9249</v>
       </c>
       <c r="P47" t="n">
-        <v>2.12467</v>
+        <v>3.71034</v>
       </c>
       <c r="Q47" t="n">
-        <v>20.7906</v>
+        <v>15.9676</v>
       </c>
       <c r="R47" t="n">
-        <v>2.13555</v>
+        <v>3.73181</v>
       </c>
       <c r="S47" t="n">
-        <v>20.7397</v>
+        <v>15.9249</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>45KVA</t>
+          <t>37.5KVA</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Curto AB Terra</t>
+          <t>Curto C Terra</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -9324,62 +9366,62 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2.13455</v>
+        <v>3.72878</v>
       </c>
       <c r="G48" t="n">
-        <v>20.7444</v>
+        <v>15.9309</v>
       </c>
       <c r="H48" t="n">
-        <v>2.12663</v>
+        <v>3.7163</v>
       </c>
       <c r="I48" t="n">
-        <v>20.7814</v>
+        <v>15.9557</v>
       </c>
       <c r="J48" t="n">
-        <v>2.11585</v>
+        <v>3.69501</v>
       </c>
       <c r="K48" t="n">
-        <v>20.8322</v>
+        <v>15.9984</v>
       </c>
       <c r="L48" t="n">
-        <v>2.12467</v>
+        <v>3.71034</v>
       </c>
       <c r="M48" t="n">
-        <v>20.7906</v>
+        <v>15.9676</v>
       </c>
       <c r="N48" t="n">
-        <v>2.13555</v>
+        <v>3.73181</v>
       </c>
       <c r="O48" t="n">
-        <v>20.7397</v>
+        <v>15.9249</v>
       </c>
       <c r="P48" t="n">
-        <v>2.12467</v>
+        <v>3.71034</v>
       </c>
       <c r="Q48" t="n">
-        <v>20.7906</v>
+        <v>15.9676</v>
       </c>
       <c r="R48" t="n">
-        <v>2.13555</v>
+        <v>3.73181</v>
       </c>
       <c r="S48" t="n">
-        <v>20.7397</v>
+        <v>15.9249</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>45KVA</t>
+          <t>37.5KVA</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Curto AB</t>
+          <t>Funcionamento Normal</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>BT Consumidor</t>
+          <t>Funcionamento Normal</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -9393,46 +9435,46 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2.13455</v>
+        <v>3.72878</v>
       </c>
       <c r="G49" t="n">
-        <v>20.7444</v>
+        <v>15.9309</v>
       </c>
       <c r="H49" t="n">
-        <v>2.12663</v>
+        <v>3.7163</v>
       </c>
       <c r="I49" t="n">
-        <v>20.7814</v>
+        <v>15.9557</v>
       </c>
       <c r="J49" t="n">
-        <v>2.11585</v>
+        <v>3.69501</v>
       </c>
       <c r="K49" t="n">
-        <v>20.8322</v>
+        <v>15.9984</v>
       </c>
       <c r="L49" t="n">
-        <v>2.12467</v>
+        <v>3.71034</v>
       </c>
       <c r="M49" t="n">
-        <v>20.7906</v>
+        <v>15.9676</v>
       </c>
       <c r="N49" t="n">
-        <v>2.13555</v>
+        <v>3.73181</v>
       </c>
       <c r="O49" t="n">
-        <v>20.7397</v>
+        <v>15.9249</v>
       </c>
       <c r="P49" t="n">
-        <v>2.12467</v>
+        <v>3.71034</v>
       </c>
       <c r="Q49" t="n">
-        <v>20.7906</v>
+        <v>15.9676</v>
       </c>
       <c r="R49" t="n">
-        <v>2.13555</v>
+        <v>3.73181</v>
       </c>
       <c r="S49" t="n">
-        <v>20.7397</v>
+        <v>15.9249</v>
       </c>
     </row>
     <row r="50">
@@ -9443,7 +9485,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Curto AC Terra</t>
+          <t>Curto ABC Terra</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -9512,7 +9554,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Curto AC</t>
+          <t>Curto ABC</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -9581,7 +9623,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Curto BC Terra</t>
+          <t>Curto AB Terra</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -9650,7 +9692,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Curto BC</t>
+          <t>Curto AB</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -9719,7 +9761,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Curto A Terra</t>
+          <t>Curto AC Terra</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -9788,7 +9830,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Curto B Terra</t>
+          <t>Curto AC</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -9857,7 +9899,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Curto C Terra</t>
+          <t>Curto BC Terra</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -9921,12 +9963,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>50KVA</t>
+          <t>45KVA</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Curto ABC Terra</t>
+          <t>Curto BC</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -9945,57 +9987,57 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1.95247</v>
+        <v>2.13455</v>
       </c>
       <c r="G57" t="n">
-        <v>21.6522</v>
+        <v>20.7444</v>
       </c>
       <c r="H57" t="n">
-        <v>1.94498</v>
+        <v>2.12663</v>
       </c>
       <c r="I57" t="n">
-        <v>21.6922</v>
+        <v>20.7814</v>
       </c>
       <c r="J57" t="n">
-        <v>1.93541</v>
+        <v>2.11585</v>
       </c>
       <c r="K57" t="n">
-        <v>21.7438</v>
+        <v>20.8322</v>
       </c>
       <c r="L57" t="n">
-        <v>1.94355</v>
+        <v>2.12467</v>
       </c>
       <c r="M57" t="n">
-        <v>21.7</v>
+        <v>20.7906</v>
       </c>
       <c r="N57" t="n">
-        <v>1.95321</v>
+        <v>2.13555</v>
       </c>
       <c r="O57" t="n">
-        <v>21.6483</v>
+        <v>20.7397</v>
       </c>
       <c r="P57" t="n">
-        <v>1.94355</v>
+        <v>2.12467</v>
       </c>
       <c r="Q57" t="n">
-        <v>21.7</v>
+        <v>20.7906</v>
       </c>
       <c r="R57" t="n">
-        <v>1.95321</v>
+        <v>2.13555</v>
       </c>
       <c r="S57" t="n">
-        <v>21.6483</v>
+        <v>20.7397</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>50KVA</t>
+          <t>45KVA</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Curto ABC</t>
+          <t>Curto A Terra</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -10014,57 +10056,57 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1.95247</v>
+        <v>2.13455</v>
       </c>
       <c r="G58" t="n">
-        <v>21.6522</v>
+        <v>20.7444</v>
       </c>
       <c r="H58" t="n">
-        <v>1.94498</v>
+        <v>2.12663</v>
       </c>
       <c r="I58" t="n">
-        <v>21.6922</v>
+        <v>20.7814</v>
       </c>
       <c r="J58" t="n">
-        <v>1.93541</v>
+        <v>2.11585</v>
       </c>
       <c r="K58" t="n">
-        <v>21.7438</v>
+        <v>20.8322</v>
       </c>
       <c r="L58" t="n">
-        <v>1.94355</v>
+        <v>2.12467</v>
       </c>
       <c r="M58" t="n">
-        <v>21.7</v>
+        <v>20.7906</v>
       </c>
       <c r="N58" t="n">
-        <v>1.95321</v>
+        <v>2.13555</v>
       </c>
       <c r="O58" t="n">
-        <v>21.6483</v>
+        <v>20.7397</v>
       </c>
       <c r="P58" t="n">
-        <v>1.94355</v>
+        <v>2.12467</v>
       </c>
       <c r="Q58" t="n">
-        <v>21.7</v>
+        <v>20.7906</v>
       </c>
       <c r="R58" t="n">
-        <v>1.95321</v>
+        <v>2.13555</v>
       </c>
       <c r="S58" t="n">
-        <v>21.6483</v>
+        <v>20.7397</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>50KVA</t>
+          <t>45KVA</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Curto AB Terra</t>
+          <t>Curto B Terra</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -10083,57 +10125,57 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1.95247</v>
+        <v>2.13455</v>
       </c>
       <c r="G59" t="n">
-        <v>21.6522</v>
+        <v>20.7444</v>
       </c>
       <c r="H59" t="n">
-        <v>1.94498</v>
+        <v>2.12663</v>
       </c>
       <c r="I59" t="n">
-        <v>21.6922</v>
+        <v>20.7814</v>
       </c>
       <c r="J59" t="n">
-        <v>1.93541</v>
+        <v>2.11585</v>
       </c>
       <c r="K59" t="n">
-        <v>21.7438</v>
+        <v>20.8322</v>
       </c>
       <c r="L59" t="n">
-        <v>1.94355</v>
+        <v>2.12467</v>
       </c>
       <c r="M59" t="n">
-        <v>21.7</v>
+        <v>20.7906</v>
       </c>
       <c r="N59" t="n">
-        <v>1.95321</v>
+        <v>2.13555</v>
       </c>
       <c r="O59" t="n">
-        <v>21.6483</v>
+        <v>20.7397</v>
       </c>
       <c r="P59" t="n">
-        <v>1.94355</v>
+        <v>2.12467</v>
       </c>
       <c r="Q59" t="n">
-        <v>21.7</v>
+        <v>20.7906</v>
       </c>
       <c r="R59" t="n">
-        <v>1.95321</v>
+        <v>2.13555</v>
       </c>
       <c r="S59" t="n">
-        <v>21.6483</v>
+        <v>20.7397</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>50KVA</t>
+          <t>45KVA</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Curto AB</t>
+          <t>Curto C Terra</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -10152,62 +10194,62 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1.95247</v>
+        <v>2.13455</v>
       </c>
       <c r="G60" t="n">
-        <v>21.6522</v>
+        <v>20.7444</v>
       </c>
       <c r="H60" t="n">
-        <v>1.94498</v>
+        <v>2.12663</v>
       </c>
       <c r="I60" t="n">
-        <v>21.6922</v>
+        <v>20.7814</v>
       </c>
       <c r="J60" t="n">
-        <v>1.93541</v>
+        <v>2.11585</v>
       </c>
       <c r="K60" t="n">
-        <v>21.7438</v>
+        <v>20.8322</v>
       </c>
       <c r="L60" t="n">
-        <v>1.94355</v>
+        <v>2.12467</v>
       </c>
       <c r="M60" t="n">
-        <v>21.7</v>
+        <v>20.7906</v>
       </c>
       <c r="N60" t="n">
-        <v>1.95321</v>
+        <v>2.13555</v>
       </c>
       <c r="O60" t="n">
-        <v>21.6483</v>
+        <v>20.7397</v>
       </c>
       <c r="P60" t="n">
-        <v>1.94355</v>
+        <v>2.12467</v>
       </c>
       <c r="Q60" t="n">
-        <v>21.7</v>
+        <v>20.7906</v>
       </c>
       <c r="R60" t="n">
-        <v>1.95321</v>
+        <v>2.13555</v>
       </c>
       <c r="S60" t="n">
-        <v>21.6483</v>
+        <v>20.7397</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>50KVA</t>
+          <t>45KVA</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Curto AC Terra</t>
+          <t>Funcionamento Normal</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>BT Consumidor</t>
+          <t>Funcionamento Normal</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -10221,46 +10263,46 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1.95247</v>
+        <v>2.13455</v>
       </c>
       <c r="G61" t="n">
-        <v>21.6522</v>
+        <v>20.7444</v>
       </c>
       <c r="H61" t="n">
-        <v>1.94498</v>
+        <v>2.12663</v>
       </c>
       <c r="I61" t="n">
-        <v>21.6922</v>
+        <v>20.7814</v>
       </c>
       <c r="J61" t="n">
-        <v>1.93541</v>
+        <v>2.11585</v>
       </c>
       <c r="K61" t="n">
-        <v>21.7438</v>
+        <v>20.8322</v>
       </c>
       <c r="L61" t="n">
-        <v>1.94355</v>
+        <v>2.12467</v>
       </c>
       <c r="M61" t="n">
-        <v>21.7</v>
+        <v>20.7906</v>
       </c>
       <c r="N61" t="n">
-        <v>1.95321</v>
+        <v>2.13555</v>
       </c>
       <c r="O61" t="n">
-        <v>21.6483</v>
+        <v>20.7397</v>
       </c>
       <c r="P61" t="n">
-        <v>1.94355</v>
+        <v>2.12467</v>
       </c>
       <c r="Q61" t="n">
-        <v>21.7</v>
+        <v>20.7906</v>
       </c>
       <c r="R61" t="n">
-        <v>1.95321</v>
+        <v>2.13555</v>
       </c>
       <c r="S61" t="n">
-        <v>21.6483</v>
+        <v>20.7397</v>
       </c>
     </row>
     <row r="62">
@@ -10271,7 +10313,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Curto AC</t>
+          <t>Curto ABC Terra</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -10340,7 +10382,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Curto BC Terra</t>
+          <t>Curto ABC</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -10409,7 +10451,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Curto BC</t>
+          <t>Curto AB Terra</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -10478,7 +10520,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Curto A Terra</t>
+          <t>Curto AB</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -10547,7 +10589,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Curto B Terra</t>
+          <t>Curto AC Terra</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -10616,7 +10658,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Curto C Terra</t>
+          <t>Curto AC</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -10680,12 +10722,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>75KVA</t>
+          <t>50KVA</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Curto ABC Terra</t>
+          <t>Curto BC Terra</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -10695,80 +10737,66 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>3H</t>
+          <t>2H</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>3H</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>1.95247</v>
       </c>
       <c r="G68" t="n">
-        <v>31.4375</v>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>21.6522</v>
+      </c>
+      <c r="H68" t="n">
+        <v>1.94498</v>
       </c>
       <c r="I68" t="n">
-        <v>31.5112</v>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>21.6922</v>
+      </c>
+      <c r="J68" t="n">
+        <v>1.93541</v>
       </c>
       <c r="K68" t="n">
-        <v>31.5683</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>21.7438</v>
+      </c>
+      <c r="L68" t="n">
+        <v>1.94355</v>
       </c>
       <c r="M68" t="n">
-        <v>31.5002</v>
-      </c>
-      <c r="N68" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>21.7</v>
+      </c>
+      <c r="N68" t="n">
+        <v>1.95321</v>
       </c>
       <c r="O68" t="n">
-        <v>31.4429</v>
-      </c>
-      <c r="P68" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>21.6483</v>
+      </c>
+      <c r="P68" t="n">
+        <v>1.94355</v>
       </c>
       <c r="Q68" t="n">
-        <v>31.5002</v>
-      </c>
-      <c r="R68" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>21.7</v>
+      </c>
+      <c r="R68" t="n">
+        <v>1.95321</v>
       </c>
       <c r="S68" t="n">
-        <v>31.4429</v>
+        <v>21.6483</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>75KVA</t>
+          <t>50KVA</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Curto ABC</t>
+          <t>Curto BC</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -10778,80 +10806,66 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>3H</t>
+          <t>2H</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>3H</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>1.95247</v>
       </c>
       <c r="G69" t="n">
-        <v>31.4375</v>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>21.6522</v>
+      </c>
+      <c r="H69" t="n">
+        <v>1.94498</v>
       </c>
       <c r="I69" t="n">
-        <v>31.5112</v>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>21.6922</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1.93541</v>
       </c>
       <c r="K69" t="n">
-        <v>31.5683</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>21.7438</v>
+      </c>
+      <c r="L69" t="n">
+        <v>1.94355</v>
       </c>
       <c r="M69" t="n">
-        <v>31.5002</v>
-      </c>
-      <c r="N69" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>21.7</v>
+      </c>
+      <c r="N69" t="n">
+        <v>1.95321</v>
       </c>
       <c r="O69" t="n">
-        <v>31.4429</v>
-      </c>
-      <c r="P69" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>21.6483</v>
+      </c>
+      <c r="P69" t="n">
+        <v>1.94355</v>
       </c>
       <c r="Q69" t="n">
-        <v>31.5002</v>
-      </c>
-      <c r="R69" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>21.7</v>
+      </c>
+      <c r="R69" t="n">
+        <v>1.95321</v>
       </c>
       <c r="S69" t="n">
-        <v>31.4429</v>
+        <v>21.6483</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>75KVA</t>
+          <t>50KVA</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Curto AB Terra</t>
+          <t>Curto A Terra</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -10861,80 +10875,66 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>3H</t>
+          <t>2H</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>3H</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>1.95247</v>
       </c>
       <c r="G70" t="n">
-        <v>31.4375</v>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>21.6522</v>
+      </c>
+      <c r="H70" t="n">
+        <v>1.94498</v>
       </c>
       <c r="I70" t="n">
-        <v>31.5112</v>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>21.6922</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1.93541</v>
       </c>
       <c r="K70" t="n">
-        <v>31.5683</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>21.7438</v>
+      </c>
+      <c r="L70" t="n">
+        <v>1.94355</v>
       </c>
       <c r="M70" t="n">
-        <v>31.5002</v>
-      </c>
-      <c r="N70" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>21.7</v>
+      </c>
+      <c r="N70" t="n">
+        <v>1.95321</v>
       </c>
       <c r="O70" t="n">
-        <v>31.4429</v>
-      </c>
-      <c r="P70" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>21.6483</v>
+      </c>
+      <c r="P70" t="n">
+        <v>1.94355</v>
       </c>
       <c r="Q70" t="n">
-        <v>31.5002</v>
-      </c>
-      <c r="R70" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>21.7</v>
+      </c>
+      <c r="R70" t="n">
+        <v>1.95321</v>
       </c>
       <c r="S70" t="n">
-        <v>31.4429</v>
+        <v>21.6483</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>75KVA</t>
+          <t>50KVA</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Curto AB</t>
+          <t>Curto B Terra</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -10944,80 +10944,66 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>3H</t>
+          <t>2H</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>3H</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>1.95247</v>
       </c>
       <c r="G71" t="n">
-        <v>31.4375</v>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>21.6522</v>
+      </c>
+      <c r="H71" t="n">
+        <v>1.94498</v>
       </c>
       <c r="I71" t="n">
-        <v>31.5112</v>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>21.6922</v>
+      </c>
+      <c r="J71" t="n">
+        <v>1.93541</v>
       </c>
       <c r="K71" t="n">
-        <v>31.5683</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>21.7438</v>
+      </c>
+      <c r="L71" t="n">
+        <v>1.94355</v>
       </c>
       <c r="M71" t="n">
-        <v>31.5002</v>
-      </c>
-      <c r="N71" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>21.7</v>
+      </c>
+      <c r="N71" t="n">
+        <v>1.95321</v>
       </c>
       <c r="O71" t="n">
-        <v>31.4429</v>
-      </c>
-      <c r="P71" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>21.6483</v>
+      </c>
+      <c r="P71" t="n">
+        <v>1.94355</v>
       </c>
       <c r="Q71" t="n">
-        <v>31.5002</v>
-      </c>
-      <c r="R71" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>21.7</v>
+      </c>
+      <c r="R71" t="n">
+        <v>1.95321</v>
       </c>
       <c r="S71" t="n">
-        <v>31.4429</v>
+        <v>21.6483</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>75KVA</t>
+          <t>50KVA</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Curto AC Terra</t>
+          <t>Curto C Terra</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -11027,152 +11013,124 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>3H</t>
+          <t>2H</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>3H</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>1.95247</v>
       </c>
       <c r="G72" t="n">
-        <v>31.4375</v>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>21.6522</v>
+      </c>
+      <c r="H72" t="n">
+        <v>1.94498</v>
       </c>
       <c r="I72" t="n">
-        <v>31.5112</v>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>21.6922</v>
+      </c>
+      <c r="J72" t="n">
+        <v>1.93541</v>
       </c>
       <c r="K72" t="n">
-        <v>31.5683</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>21.7438</v>
+      </c>
+      <c r="L72" t="n">
+        <v>1.94355</v>
       </c>
       <c r="M72" t="n">
-        <v>31.5002</v>
-      </c>
-      <c r="N72" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>21.7</v>
+      </c>
+      <c r="N72" t="n">
+        <v>1.95321</v>
       </c>
       <c r="O72" t="n">
-        <v>31.4429</v>
-      </c>
-      <c r="P72" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>21.6483</v>
+      </c>
+      <c r="P72" t="n">
+        <v>1.94355</v>
       </c>
       <c r="Q72" t="n">
-        <v>31.5002</v>
-      </c>
-      <c r="R72" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>21.7</v>
+      </c>
+      <c r="R72" t="n">
+        <v>1.95321</v>
       </c>
       <c r="S72" t="n">
-        <v>31.4429</v>
+        <v>21.6483</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>75KVA</t>
+          <t>50KVA</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Curto AC</t>
+          <t>Funcionamento Normal</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>BT Consumidor</t>
+          <t>Funcionamento Normal</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>3H</t>
+          <t>2H</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>3H</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>1.95247</v>
       </c>
       <c r="G73" t="n">
-        <v>31.4375</v>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>21.6522</v>
+      </c>
+      <c r="H73" t="n">
+        <v>1.94498</v>
       </c>
       <c r="I73" t="n">
-        <v>31.5112</v>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>21.6922</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1.93541</v>
       </c>
       <c r="K73" t="n">
-        <v>31.5683</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>21.7438</v>
+      </c>
+      <c r="L73" t="n">
+        <v>1.94355</v>
       </c>
       <c r="M73" t="n">
-        <v>31.5002</v>
-      </c>
-      <c r="N73" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>21.7</v>
+      </c>
+      <c r="N73" t="n">
+        <v>1.95321</v>
       </c>
       <c r="O73" t="n">
-        <v>31.4429</v>
-      </c>
-      <c r="P73" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>21.6483</v>
+      </c>
+      <c r="P73" t="n">
+        <v>1.94355</v>
       </c>
       <c r="Q73" t="n">
-        <v>31.5002</v>
-      </c>
-      <c r="R73" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>21.7</v>
+      </c>
+      <c r="R73" t="n">
+        <v>1.95321</v>
       </c>
       <c r="S73" t="n">
-        <v>31.4429</v>
+        <v>21.6483</v>
       </c>
     </row>
     <row r="74">
@@ -11183,7 +11141,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Curto BC Terra</t>
+          <t>Curto ABC Terra</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -11266,7 +11224,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Curto BC</t>
+          <t>Curto ABC</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -11349,7 +11307,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Curto A Terra</t>
+          <t>Curto AB Terra</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -11432,7 +11390,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Curto B Terra</t>
+          <t>Curto AB</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -11515,7 +11473,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Curto C Terra</t>
+          <t>Curto AC Terra</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -11593,12 +11551,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>100KVA</t>
+          <t>75KVA</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Curto ABC Terra</t>
+          <t>Curto AC</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -11608,66 +11566,80 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>5H</t>
+          <t>3H</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>5H</t>
-        </is>
-      </c>
-      <c r="F79" t="n">
-        <v>0.558378</v>
+          <t>3H</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="G79" t="n">
-        <v>38.8407</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0.554536</v>
+        <v>31.4375</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="I79" t="n">
-        <v>38.9462</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0.552652</v>
+        <v>31.5112</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="K79" t="n">
-        <v>38.9983</v>
-      </c>
-      <c r="L79" t="n">
-        <v>0.555826</v>
+        <v>31.5683</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="M79" t="n">
-        <v>38.9107</v>
-      </c>
-      <c r="N79" t="n">
-        <v>0.5577299999999999</v>
+        <v>31.5002</v>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="O79" t="n">
-        <v>38.8584</v>
-      </c>
-      <c r="P79" t="n">
-        <v>0.555826</v>
+        <v>31.4429</v>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="Q79" t="n">
-        <v>38.9107</v>
-      </c>
-      <c r="R79" t="n">
-        <v>0.5577299999999999</v>
+        <v>31.5002</v>
+      </c>
+      <c r="R79" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="S79" t="n">
-        <v>38.8584</v>
+        <v>31.4429</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>100KVA</t>
+          <t>75KVA</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Curto ABC</t>
+          <t>Curto BC Terra</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -11677,66 +11649,80 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>5H</t>
+          <t>3H</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>5H</t>
-        </is>
-      </c>
-      <c r="F80" t="n">
-        <v>0.558378</v>
+          <t>3H</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="G80" t="n">
-        <v>38.8407</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0.554536</v>
+        <v>31.4375</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="I80" t="n">
-        <v>38.9462</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.552652</v>
+        <v>31.5112</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="K80" t="n">
-        <v>38.9983</v>
-      </c>
-      <c r="L80" t="n">
-        <v>0.555826</v>
+        <v>31.5683</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="M80" t="n">
-        <v>38.9107</v>
-      </c>
-      <c r="N80" t="n">
-        <v>0.5577299999999999</v>
+        <v>31.5002</v>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="O80" t="n">
-        <v>38.8584</v>
-      </c>
-      <c r="P80" t="n">
-        <v>0.555826</v>
+        <v>31.4429</v>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="Q80" t="n">
-        <v>38.9107</v>
-      </c>
-      <c r="R80" t="n">
-        <v>0.5577299999999999</v>
+        <v>31.5002</v>
+      </c>
+      <c r="R80" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="S80" t="n">
-        <v>38.8584</v>
+        <v>31.4429</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>100KVA</t>
+          <t>75KVA</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Curto AB Terra</t>
+          <t>Curto BC</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -11746,66 +11732,80 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>5H</t>
+          <t>3H</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>5H</t>
-        </is>
-      </c>
-      <c r="F81" t="n">
-        <v>0.558378</v>
+          <t>3H</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="G81" t="n">
-        <v>38.8407</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0.554536</v>
+        <v>31.4375</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="I81" t="n">
-        <v>38.9462</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0.552652</v>
+        <v>31.5112</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="K81" t="n">
-        <v>38.9983</v>
-      </c>
-      <c r="L81" t="n">
-        <v>0.555826</v>
+        <v>31.5683</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="M81" t="n">
-        <v>38.9107</v>
-      </c>
-      <c r="N81" t="n">
-        <v>0.5577299999999999</v>
+        <v>31.5002</v>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="O81" t="n">
-        <v>38.8584</v>
-      </c>
-      <c r="P81" t="n">
-        <v>0.555826</v>
+        <v>31.4429</v>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="Q81" t="n">
-        <v>38.9107</v>
-      </c>
-      <c r="R81" t="n">
-        <v>0.5577299999999999</v>
+        <v>31.5002</v>
+      </c>
+      <c r="R81" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="S81" t="n">
-        <v>38.8584</v>
+        <v>31.4429</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>100KVA</t>
+          <t>75KVA</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Curto AB</t>
+          <t>Curto A Terra</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -11815,66 +11815,80 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>5H</t>
+          <t>3H</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>5H</t>
-        </is>
-      </c>
-      <c r="F82" t="n">
-        <v>0.558378</v>
+          <t>3H</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="G82" t="n">
-        <v>38.8407</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0.554536</v>
+        <v>31.4375</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="I82" t="n">
-        <v>38.9462</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0.552652</v>
+        <v>31.5112</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="K82" t="n">
-        <v>38.9983</v>
-      </c>
-      <c r="L82" t="n">
-        <v>0.555826</v>
+        <v>31.5683</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="M82" t="n">
-        <v>38.9107</v>
-      </c>
-      <c r="N82" t="n">
-        <v>0.5577299999999999</v>
+        <v>31.5002</v>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="O82" t="n">
-        <v>38.8584</v>
-      </c>
-      <c r="P82" t="n">
-        <v>0.555826</v>
+        <v>31.4429</v>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="Q82" t="n">
-        <v>38.9107</v>
-      </c>
-      <c r="R82" t="n">
-        <v>0.5577299999999999</v>
+        <v>31.5002</v>
+      </c>
+      <c r="R82" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="S82" t="n">
-        <v>38.8584</v>
+        <v>31.4429</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>100KVA</t>
+          <t>75KVA</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Curto AC Terra</t>
+          <t>Curto B Terra</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -11884,66 +11898,80 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>5H</t>
+          <t>3H</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>5H</t>
-        </is>
-      </c>
-      <c r="F83" t="n">
-        <v>0.558378</v>
+          <t>3H</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="G83" t="n">
-        <v>38.8407</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0.554536</v>
+        <v>31.4375</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="I83" t="n">
-        <v>38.9462</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0.552652</v>
+        <v>31.5112</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="K83" t="n">
-        <v>38.9983</v>
-      </c>
-      <c r="L83" t="n">
-        <v>0.555826</v>
+        <v>31.5683</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="M83" t="n">
-        <v>38.9107</v>
-      </c>
-      <c r="N83" t="n">
-        <v>0.5577299999999999</v>
+        <v>31.5002</v>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="O83" t="n">
-        <v>38.8584</v>
-      </c>
-      <c r="P83" t="n">
-        <v>0.555826</v>
+        <v>31.4429</v>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="Q83" t="n">
-        <v>38.9107</v>
-      </c>
-      <c r="R83" t="n">
-        <v>0.5577299999999999</v>
+        <v>31.5002</v>
+      </c>
+      <c r="R83" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="S83" t="n">
-        <v>38.8584</v>
+        <v>31.4429</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>100KVA</t>
+          <t>75KVA</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Curto AC</t>
+          <t>Curto C Terra</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -11953,124 +11981,152 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>5H</t>
+          <t>3H</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>5H</t>
-        </is>
-      </c>
-      <c r="F84" t="n">
-        <v>0.558378</v>
+          <t>3H</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="G84" t="n">
-        <v>38.8407</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0.554536</v>
+        <v>31.4375</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="I84" t="n">
-        <v>38.9462</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.552652</v>
+        <v>31.5112</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="K84" t="n">
-        <v>38.9983</v>
-      </c>
-      <c r="L84" t="n">
-        <v>0.555826</v>
+        <v>31.5683</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="M84" t="n">
-        <v>38.9107</v>
-      </c>
-      <c r="N84" t="n">
-        <v>0.5577299999999999</v>
+        <v>31.5002</v>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="O84" t="n">
-        <v>38.8584</v>
-      </c>
-      <c r="P84" t="n">
-        <v>0.555826</v>
+        <v>31.4429</v>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="Q84" t="n">
-        <v>38.9107</v>
-      </c>
-      <c r="R84" t="n">
-        <v>0.5577299999999999</v>
+        <v>31.5002</v>
+      </c>
+      <c r="R84" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="S84" t="n">
-        <v>38.8584</v>
+        <v>31.4429</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>100KVA</t>
+          <t>75KVA</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Curto BC Terra</t>
+          <t>Funcionamento Normal</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>BT Consumidor</t>
+          <t>Funcionamento Normal</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>5H</t>
+          <t>3H</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>5H</t>
-        </is>
-      </c>
-      <c r="F85" t="n">
-        <v>0.558378</v>
+          <t>3H</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="G85" t="n">
-        <v>38.8407</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0.554536</v>
+        <v>31.4375</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="I85" t="n">
-        <v>38.9462</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0.552652</v>
+        <v>31.5112</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="K85" t="n">
-        <v>38.9983</v>
-      </c>
-      <c r="L85" t="n">
-        <v>0.555826</v>
+        <v>31.5683</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="M85" t="n">
-        <v>38.9107</v>
-      </c>
-      <c r="N85" t="n">
-        <v>0.5577299999999999</v>
+        <v>31.5002</v>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="O85" t="n">
-        <v>38.8584</v>
-      </c>
-      <c r="P85" t="n">
-        <v>0.555826</v>
+        <v>31.4429</v>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="Q85" t="n">
-        <v>38.9107</v>
-      </c>
-      <c r="R85" t="n">
-        <v>0.5577299999999999</v>
+        <v>31.5002</v>
+      </c>
+      <c r="R85" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="S85" t="n">
-        <v>38.8584</v>
+        <v>31.4429</v>
       </c>
     </row>
     <row r="86">
@@ -12081,7 +12137,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Curto BC</t>
+          <t>Curto ABC Terra</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -12150,7 +12206,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Curto A Terra</t>
+          <t>Curto ABC</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -12219,7 +12275,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Curto B Terra</t>
+          <t>Curto AB Terra</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -12288,7 +12344,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Curto C Terra</t>
+          <t>Curto AB</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -12352,12 +12408,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>112.5KVA</t>
+          <t>100KVA</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Curto ABC Terra</t>
+          <t>Curto AC Terra</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -12376,57 +12432,57 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>0.455662</v>
+        <v>0.558378</v>
       </c>
       <c r="G90" t="n">
-        <v>42.1119</v>
+        <v>38.8407</v>
       </c>
       <c r="H90" t="n">
-        <v>0.452429</v>
+        <v>0.554536</v>
       </c>
       <c r="I90" t="n">
-        <v>42.2329</v>
+        <v>38.9462</v>
       </c>
       <c r="J90" t="n">
-        <v>0.451174</v>
+        <v>0.552652</v>
       </c>
       <c r="K90" t="n">
-        <v>42.2803</v>
+        <v>38.9983</v>
       </c>
       <c r="L90" t="n">
-        <v>0.453736</v>
+        <v>0.555826</v>
       </c>
       <c r="M90" t="n">
-        <v>42.1838</v>
+        <v>38.9107</v>
       </c>
       <c r="N90" t="n">
-        <v>0.455005</v>
+        <v>0.5577299999999999</v>
       </c>
       <c r="O90" t="n">
-        <v>42.1364</v>
+        <v>38.8584</v>
       </c>
       <c r="P90" t="n">
-        <v>0.453736</v>
+        <v>0.555826</v>
       </c>
       <c r="Q90" t="n">
-        <v>42.1838</v>
+        <v>38.9107</v>
       </c>
       <c r="R90" t="n">
-        <v>0.455005</v>
+        <v>0.5577299999999999</v>
       </c>
       <c r="S90" t="n">
-        <v>42.1364</v>
+        <v>38.8584</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>112.5KVA</t>
+          <t>100KVA</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Curto ABC</t>
+          <t>Curto AC</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -12445,57 +12501,57 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>0.455662</v>
+        <v>0.558378</v>
       </c>
       <c r="G91" t="n">
-        <v>42.1119</v>
+        <v>38.8407</v>
       </c>
       <c r="H91" t="n">
-        <v>0.452429</v>
+        <v>0.554536</v>
       </c>
       <c r="I91" t="n">
-        <v>42.2329</v>
+        <v>38.9462</v>
       </c>
       <c r="J91" t="n">
-        <v>0.451174</v>
+        <v>0.552652</v>
       </c>
       <c r="K91" t="n">
-        <v>42.2803</v>
+        <v>38.9983</v>
       </c>
       <c r="L91" t="n">
-        <v>0.453736</v>
+        <v>0.555826</v>
       </c>
       <c r="M91" t="n">
-        <v>42.1838</v>
+        <v>38.9107</v>
       </c>
       <c r="N91" t="n">
-        <v>0.455005</v>
+        <v>0.5577299999999999</v>
       </c>
       <c r="O91" t="n">
-        <v>42.1364</v>
+        <v>38.8584</v>
       </c>
       <c r="P91" t="n">
-        <v>0.453736</v>
+        <v>0.555826</v>
       </c>
       <c r="Q91" t="n">
-        <v>42.1838</v>
+        <v>38.9107</v>
       </c>
       <c r="R91" t="n">
-        <v>0.455005</v>
+        <v>0.5577299999999999</v>
       </c>
       <c r="S91" t="n">
-        <v>42.1364</v>
+        <v>38.8584</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>112.5KVA</t>
+          <t>100KVA</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Curto AB Terra</t>
+          <t>Curto BC Terra</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -12514,57 +12570,57 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>0.455662</v>
+        <v>0.558378</v>
       </c>
       <c r="G92" t="n">
-        <v>42.1119</v>
+        <v>38.8407</v>
       </c>
       <c r="H92" t="n">
-        <v>0.452429</v>
+        <v>0.554536</v>
       </c>
       <c r="I92" t="n">
-        <v>42.2329</v>
+        <v>38.9462</v>
       </c>
       <c r="J92" t="n">
-        <v>0.451174</v>
+        <v>0.552652</v>
       </c>
       <c r="K92" t="n">
-        <v>42.2803</v>
+        <v>38.9983</v>
       </c>
       <c r="L92" t="n">
-        <v>0.453736</v>
+        <v>0.555826</v>
       </c>
       <c r="M92" t="n">
-        <v>42.1838</v>
+        <v>38.9107</v>
       </c>
       <c r="N92" t="n">
-        <v>0.455005</v>
+        <v>0.5577299999999999</v>
       </c>
       <c r="O92" t="n">
-        <v>42.1364</v>
+        <v>38.8584</v>
       </c>
       <c r="P92" t="n">
-        <v>0.453736</v>
+        <v>0.555826</v>
       </c>
       <c r="Q92" t="n">
-        <v>42.1838</v>
+        <v>38.9107</v>
       </c>
       <c r="R92" t="n">
-        <v>0.455005</v>
+        <v>0.5577299999999999</v>
       </c>
       <c r="S92" t="n">
-        <v>42.1364</v>
+        <v>38.8584</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>112.5KVA</t>
+          <t>100KVA</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Curto AB</t>
+          <t>Curto BC</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -12583,57 +12639,57 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>0.455662</v>
+        <v>0.558378</v>
       </c>
       <c r="G93" t="n">
-        <v>42.1119</v>
+        <v>38.8407</v>
       </c>
       <c r="H93" t="n">
-        <v>0.452429</v>
+        <v>0.554536</v>
       </c>
       <c r="I93" t="n">
-        <v>42.2329</v>
+        <v>38.9462</v>
       </c>
       <c r="J93" t="n">
-        <v>0.451174</v>
+        <v>0.552652</v>
       </c>
       <c r="K93" t="n">
-        <v>42.2803</v>
+        <v>38.9983</v>
       </c>
       <c r="L93" t="n">
-        <v>0.453736</v>
+        <v>0.555826</v>
       </c>
       <c r="M93" t="n">
-        <v>42.1838</v>
+        <v>38.9107</v>
       </c>
       <c r="N93" t="n">
-        <v>0.455005</v>
+        <v>0.5577299999999999</v>
       </c>
       <c r="O93" t="n">
-        <v>42.1364</v>
+        <v>38.8584</v>
       </c>
       <c r="P93" t="n">
-        <v>0.453736</v>
+        <v>0.555826</v>
       </c>
       <c r="Q93" t="n">
-        <v>42.1838</v>
+        <v>38.9107</v>
       </c>
       <c r="R93" t="n">
-        <v>0.455005</v>
+        <v>0.5577299999999999</v>
       </c>
       <c r="S93" t="n">
-        <v>42.1364</v>
+        <v>38.8584</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>112.5KVA</t>
+          <t>100KVA</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Curto AC Terra</t>
+          <t>Curto A Terra</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -12652,57 +12708,57 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>0.455662</v>
+        <v>0.558378</v>
       </c>
       <c r="G94" t="n">
-        <v>42.1119</v>
+        <v>38.8407</v>
       </c>
       <c r="H94" t="n">
-        <v>0.452429</v>
+        <v>0.554536</v>
       </c>
       <c r="I94" t="n">
-        <v>42.2329</v>
+        <v>38.9462</v>
       </c>
       <c r="J94" t="n">
-        <v>0.451174</v>
+        <v>0.552652</v>
       </c>
       <c r="K94" t="n">
-        <v>42.2803</v>
+        <v>38.9983</v>
       </c>
       <c r="L94" t="n">
-        <v>0.453736</v>
+        <v>0.555826</v>
       </c>
       <c r="M94" t="n">
-        <v>42.1838</v>
+        <v>38.9107</v>
       </c>
       <c r="N94" t="n">
-        <v>0.455005</v>
+        <v>0.5577299999999999</v>
       </c>
       <c r="O94" t="n">
-        <v>42.1364</v>
+        <v>38.8584</v>
       </c>
       <c r="P94" t="n">
-        <v>0.453736</v>
+        <v>0.555826</v>
       </c>
       <c r="Q94" t="n">
-        <v>42.1838</v>
+        <v>38.9107</v>
       </c>
       <c r="R94" t="n">
-        <v>0.455005</v>
+        <v>0.5577299999999999</v>
       </c>
       <c r="S94" t="n">
-        <v>42.1364</v>
+        <v>38.8584</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>112.5KVA</t>
+          <t>100KVA</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Curto AC</t>
+          <t>Curto B Terra</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -12721,57 +12777,57 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>0.455662</v>
+        <v>0.558378</v>
       </c>
       <c r="G95" t="n">
-        <v>42.1119</v>
+        <v>38.8407</v>
       </c>
       <c r="H95" t="n">
-        <v>0.452429</v>
+        <v>0.554536</v>
       </c>
       <c r="I95" t="n">
-        <v>42.2329</v>
+        <v>38.9462</v>
       </c>
       <c r="J95" t="n">
-        <v>0.451174</v>
+        <v>0.552652</v>
       </c>
       <c r="K95" t="n">
-        <v>42.2803</v>
+        <v>38.9983</v>
       </c>
       <c r="L95" t="n">
-        <v>0.453736</v>
+        <v>0.555826</v>
       </c>
       <c r="M95" t="n">
-        <v>42.1838</v>
+        <v>38.9107</v>
       </c>
       <c r="N95" t="n">
-        <v>0.455005</v>
+        <v>0.5577299999999999</v>
       </c>
       <c r="O95" t="n">
-        <v>42.1364</v>
+        <v>38.8584</v>
       </c>
       <c r="P95" t="n">
-        <v>0.453736</v>
+        <v>0.555826</v>
       </c>
       <c r="Q95" t="n">
-        <v>42.1838</v>
+        <v>38.9107</v>
       </c>
       <c r="R95" t="n">
-        <v>0.455005</v>
+        <v>0.5577299999999999</v>
       </c>
       <c r="S95" t="n">
-        <v>42.1364</v>
+        <v>38.8584</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>112.5KVA</t>
+          <t>100KVA</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Curto BC Terra</t>
+          <t>Curto C Terra</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -12790,62 +12846,62 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>0.455662</v>
+        <v>0.558378</v>
       </c>
       <c r="G96" t="n">
-        <v>42.1119</v>
+        <v>38.8407</v>
       </c>
       <c r="H96" t="n">
-        <v>0.452429</v>
+        <v>0.554536</v>
       </c>
       <c r="I96" t="n">
-        <v>42.2329</v>
+        <v>38.9462</v>
       </c>
       <c r="J96" t="n">
-        <v>0.451174</v>
+        <v>0.552652</v>
       </c>
       <c r="K96" t="n">
-        <v>42.2803</v>
+        <v>38.9983</v>
       </c>
       <c r="L96" t="n">
-        <v>0.453736</v>
+        <v>0.555826</v>
       </c>
       <c r="M96" t="n">
-        <v>42.1838</v>
+        <v>38.9107</v>
       </c>
       <c r="N96" t="n">
-        <v>0.455005</v>
+        <v>0.5577299999999999</v>
       </c>
       <c r="O96" t="n">
-        <v>42.1364</v>
+        <v>38.8584</v>
       </c>
       <c r="P96" t="n">
-        <v>0.453736</v>
+        <v>0.555826</v>
       </c>
       <c r="Q96" t="n">
-        <v>42.1838</v>
+        <v>38.9107</v>
       </c>
       <c r="R96" t="n">
-        <v>0.455005</v>
+        <v>0.5577299999999999</v>
       </c>
       <c r="S96" t="n">
-        <v>42.1364</v>
+        <v>38.8584</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>112.5KVA</t>
+          <t>100KVA</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Curto BC</t>
+          <t>Funcionamento Normal</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>BT Consumidor</t>
+          <t>Funcionamento Normal</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -12859,46 +12915,46 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>0.455662</v>
+        <v>0.558378</v>
       </c>
       <c r="G97" t="n">
-        <v>42.1119</v>
+        <v>38.8407</v>
       </c>
       <c r="H97" t="n">
-        <v>0.452429</v>
+        <v>0.554536</v>
       </c>
       <c r="I97" t="n">
-        <v>42.2329</v>
+        <v>38.9462</v>
       </c>
       <c r="J97" t="n">
-        <v>0.451174</v>
+        <v>0.552652</v>
       </c>
       <c r="K97" t="n">
-        <v>42.2803</v>
+        <v>38.9983</v>
       </c>
       <c r="L97" t="n">
-        <v>0.453736</v>
+        <v>0.555826</v>
       </c>
       <c r="M97" t="n">
-        <v>42.1838</v>
+        <v>38.9107</v>
       </c>
       <c r="N97" t="n">
-        <v>0.455005</v>
+        <v>0.5577299999999999</v>
       </c>
       <c r="O97" t="n">
-        <v>42.1364</v>
+        <v>38.8584</v>
       </c>
       <c r="P97" t="n">
-        <v>0.453736</v>
+        <v>0.555826</v>
       </c>
       <c r="Q97" t="n">
-        <v>42.1838</v>
+        <v>38.9107</v>
       </c>
       <c r="R97" t="n">
-        <v>0.455005</v>
+        <v>0.5577299999999999</v>
       </c>
       <c r="S97" t="n">
-        <v>42.1364</v>
+        <v>38.8584</v>
       </c>
     </row>
     <row r="98">
@@ -12909,7 +12965,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Curto A Terra</t>
+          <t>Curto ABC Terra</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -12978,7 +13034,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Curto B Terra</t>
+          <t>Curto ABC</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -13047,7 +13103,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Curto C Terra</t>
+          <t>Curto AB Terra</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -13111,12 +13167,12 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>150KVA</t>
+          <t>112.5KVA</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Curto ABC Terra</t>
+          <t>Curto AB</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -13126,66 +13182,66 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>6K</t>
+          <t>5H</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>6K</t>
+          <t>5H</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>0.220991</v>
+        <v>0.455662</v>
       </c>
       <c r="G101" t="n">
-        <v>50.5124</v>
+        <v>42.1119</v>
       </c>
       <c r="H101" t="n">
-        <v>0.22015</v>
+        <v>0.452429</v>
       </c>
       <c r="I101" t="n">
-        <v>50.6769</v>
+        <v>42.2329</v>
       </c>
       <c r="J101" t="n">
-        <v>0.220011</v>
+        <v>0.451174</v>
       </c>
       <c r="K101" t="n">
-        <v>50.7041</v>
+        <v>42.2803</v>
       </c>
       <c r="L101" t="n">
-        <v>0.220617</v>
+        <v>0.453736</v>
       </c>
       <c r="M101" t="n">
-        <v>50.5854</v>
+        <v>42.1838</v>
       </c>
       <c r="N101" t="n">
-        <v>0.220757</v>
+        <v>0.455005</v>
       </c>
       <c r="O101" t="n">
-        <v>50.5581</v>
+        <v>42.1364</v>
       </c>
       <c r="P101" t="n">
-        <v>0.220617</v>
+        <v>0.453736</v>
       </c>
       <c r="Q101" t="n">
-        <v>50.5854</v>
+        <v>42.1838</v>
       </c>
       <c r="R101" t="n">
-        <v>0.220757</v>
+        <v>0.455005</v>
       </c>
       <c r="S101" t="n">
-        <v>50.5581</v>
+        <v>42.1364</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>150KVA</t>
+          <t>112.5KVA</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Curto ABC</t>
+          <t>Curto AC Terra</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -13195,66 +13251,66 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>6K</t>
+          <t>5H</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>6K</t>
+          <t>5H</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>0.2209908</v>
+        <v>0.4556617</v>
       </c>
       <c r="G102" t="n">
-        <v>50.5124</v>
+        <v>42.11193</v>
       </c>
       <c r="H102" t="n">
-        <v>0.22015</v>
+        <v>0.4524291</v>
       </c>
       <c r="I102" t="n">
-        <v>50.67689</v>
+        <v>42.23293</v>
       </c>
       <c r="J102" t="n">
-        <v>0.2200112</v>
+        <v>0.4511741</v>
       </c>
       <c r="K102" t="n">
-        <v>50.70413</v>
+        <v>42.28026</v>
       </c>
       <c r="L102" t="n">
-        <v>0.220617</v>
+        <v>0.4537362</v>
       </c>
       <c r="M102" t="n">
-        <v>50.58539</v>
+        <v>42.18385</v>
       </c>
       <c r="N102" t="n">
-        <v>0.2207568</v>
+        <v>0.455005</v>
       </c>
       <c r="O102" t="n">
-        <v>50.55809</v>
+        <v>42.13641</v>
       </c>
       <c r="P102" t="n">
-        <v>0.220617</v>
+        <v>0.4537362</v>
       </c>
       <c r="Q102" t="n">
-        <v>50.58539</v>
+        <v>42.18385</v>
       </c>
       <c r="R102" t="n">
-        <v>0.2207568</v>
+        <v>0.455005</v>
       </c>
       <c r="S102" t="n">
-        <v>50.55809</v>
+        <v>42.13641</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>150KVA</t>
+          <t>112.5KVA</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Curto AB Terra</t>
+          <t>Curto AC</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -13264,66 +13320,66 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>6K</t>
+          <t>5H</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>6K</t>
+          <t>5H</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>0.2209908</v>
+        <v>0.4556617</v>
       </c>
       <c r="G103" t="n">
-        <v>50.5124</v>
+        <v>42.11193</v>
       </c>
       <c r="H103" t="n">
-        <v>0.22015</v>
+        <v>0.4524291</v>
       </c>
       <c r="I103" t="n">
-        <v>50.67689</v>
+        <v>42.23293</v>
       </c>
       <c r="J103" t="n">
-        <v>0.2200112</v>
+        <v>0.4511741</v>
       </c>
       <c r="K103" t="n">
-        <v>50.70413</v>
+        <v>42.28026</v>
       </c>
       <c r="L103" t="n">
-        <v>0.220617</v>
+        <v>0.4537362</v>
       </c>
       <c r="M103" t="n">
-        <v>50.58539</v>
+        <v>42.18385</v>
       </c>
       <c r="N103" t="n">
-        <v>0.2207568</v>
+        <v>0.455005</v>
       </c>
       <c r="O103" t="n">
-        <v>50.55809</v>
+        <v>42.13641</v>
       </c>
       <c r="P103" t="n">
-        <v>0.220617</v>
+        <v>0.4537362</v>
       </c>
       <c r="Q103" t="n">
-        <v>50.58539</v>
+        <v>42.18385</v>
       </c>
       <c r="R103" t="n">
-        <v>0.2207568</v>
+        <v>0.455005</v>
       </c>
       <c r="S103" t="n">
-        <v>50.55809</v>
+        <v>42.13641</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>150KVA</t>
+          <t>112.5KVA</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Curto AB</t>
+          <t>Curto BC Terra</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -13333,66 +13389,66 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>6K</t>
+          <t>5H</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>6K</t>
+          <t>5H</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>0.2209908</v>
+        <v>0.4556617</v>
       </c>
       <c r="G104" t="n">
-        <v>50.5124</v>
+        <v>42.11193</v>
       </c>
       <c r="H104" t="n">
-        <v>0.22015</v>
+        <v>0.4524291</v>
       </c>
       <c r="I104" t="n">
-        <v>50.67689</v>
+        <v>42.23293</v>
       </c>
       <c r="J104" t="n">
-        <v>0.2200112</v>
+        <v>0.4511741</v>
       </c>
       <c r="K104" t="n">
-        <v>50.70413</v>
+        <v>42.28026</v>
       </c>
       <c r="L104" t="n">
-        <v>0.220617</v>
+        <v>0.4537362</v>
       </c>
       <c r="M104" t="n">
-        <v>50.58539</v>
+        <v>42.18385</v>
       </c>
       <c r="N104" t="n">
-        <v>0.2207568</v>
+        <v>0.455005</v>
       </c>
       <c r="O104" t="n">
-        <v>50.55809</v>
+        <v>42.13641</v>
       </c>
       <c r="P104" t="n">
-        <v>0.220617</v>
+        <v>0.4537362</v>
       </c>
       <c r="Q104" t="n">
-        <v>50.58539</v>
+        <v>42.18385</v>
       </c>
       <c r="R104" t="n">
-        <v>0.2207568</v>
+        <v>0.455005</v>
       </c>
       <c r="S104" t="n">
-        <v>50.55809</v>
+        <v>42.13641</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>150KVA</t>
+          <t>112.5KVA</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Curto AC Terra</t>
+          <t>Curto BC</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -13402,66 +13458,66 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>6K</t>
+          <t>5H</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>6K</t>
+          <t>5H</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>0.2209908</v>
+        <v>0.4556617</v>
       </c>
       <c r="G105" t="n">
-        <v>50.5124</v>
+        <v>42.11193</v>
       </c>
       <c r="H105" t="n">
-        <v>0.22015</v>
+        <v>0.4524291</v>
       </c>
       <c r="I105" t="n">
-        <v>50.67689</v>
+        <v>42.23293</v>
       </c>
       <c r="J105" t="n">
-        <v>0.2200112</v>
+        <v>0.4511741</v>
       </c>
       <c r="K105" t="n">
-        <v>50.70413</v>
+        <v>42.28026</v>
       </c>
       <c r="L105" t="n">
-        <v>0.220617</v>
+        <v>0.4537362</v>
       </c>
       <c r="M105" t="n">
-        <v>50.58539</v>
+        <v>42.18385</v>
       </c>
       <c r="N105" t="n">
-        <v>0.2207568</v>
+        <v>0.455005</v>
       </c>
       <c r="O105" t="n">
-        <v>50.55809</v>
+        <v>42.13641</v>
       </c>
       <c r="P105" t="n">
-        <v>0.220617</v>
+        <v>0.4537362</v>
       </c>
       <c r="Q105" t="n">
-        <v>50.58539</v>
+        <v>42.18385</v>
       </c>
       <c r="R105" t="n">
-        <v>0.2207568</v>
+        <v>0.455005</v>
       </c>
       <c r="S105" t="n">
-        <v>50.55809</v>
+        <v>42.13641</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>150KVA</t>
+          <t>112.5KVA</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Curto AC</t>
+          <t>Curto A Terra</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -13471,66 +13527,66 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>6K</t>
+          <t>5H</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>6K</t>
+          <t>5H</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>0.2209908</v>
+        <v>0.4556617</v>
       </c>
       <c r="G106" t="n">
-        <v>50.5124</v>
+        <v>42.11193</v>
       </c>
       <c r="H106" t="n">
-        <v>0.22015</v>
+        <v>0.4524291</v>
       </c>
       <c r="I106" t="n">
-        <v>50.67689</v>
+        <v>42.23293</v>
       </c>
       <c r="J106" t="n">
-        <v>0.2200112</v>
+        <v>0.4511741</v>
       </c>
       <c r="K106" t="n">
-        <v>50.70413</v>
+        <v>42.28026</v>
       </c>
       <c r="L106" t="n">
-        <v>0.220617</v>
+        <v>0.4537362</v>
       </c>
       <c r="M106" t="n">
-        <v>50.58539</v>
+        <v>42.18385</v>
       </c>
       <c r="N106" t="n">
-        <v>0.2207568</v>
+        <v>0.455005</v>
       </c>
       <c r="O106" t="n">
-        <v>50.55809</v>
+        <v>42.13641</v>
       </c>
       <c r="P106" t="n">
-        <v>0.220617</v>
+        <v>0.4537362</v>
       </c>
       <c r="Q106" t="n">
-        <v>50.58539</v>
+        <v>42.18385</v>
       </c>
       <c r="R106" t="n">
-        <v>0.2207568</v>
+        <v>0.455005</v>
       </c>
       <c r="S106" t="n">
-        <v>50.55809</v>
+        <v>42.13641</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>150KVA</t>
+          <t>112.5KVA</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Curto BC Terra</t>
+          <t>Curto B Terra</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -13540,66 +13596,66 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>6K</t>
+          <t>5H</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>6K</t>
+          <t>5H</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>0.2209908</v>
+        <v>0.4556617</v>
       </c>
       <c r="G107" t="n">
-        <v>50.5124</v>
+        <v>42.11193</v>
       </c>
       <c r="H107" t="n">
-        <v>0.22015</v>
+        <v>0.4524291</v>
       </c>
       <c r="I107" t="n">
-        <v>50.67689</v>
+        <v>42.23293</v>
       </c>
       <c r="J107" t="n">
-        <v>0.2200112</v>
+        <v>0.4511741</v>
       </c>
       <c r="K107" t="n">
-        <v>50.70413</v>
+        <v>42.28026</v>
       </c>
       <c r="L107" t="n">
-        <v>0.220617</v>
+        <v>0.4537362</v>
       </c>
       <c r="M107" t="n">
-        <v>50.58539</v>
+        <v>42.18385</v>
       </c>
       <c r="N107" t="n">
-        <v>0.2207568</v>
+        <v>0.455005</v>
       </c>
       <c r="O107" t="n">
-        <v>50.55809</v>
+        <v>42.13641</v>
       </c>
       <c r="P107" t="n">
-        <v>0.220617</v>
+        <v>0.4537362</v>
       </c>
       <c r="Q107" t="n">
-        <v>50.58539</v>
+        <v>42.18385</v>
       </c>
       <c r="R107" t="n">
-        <v>0.2207568</v>
+        <v>0.455005</v>
       </c>
       <c r="S107" t="n">
-        <v>50.55809</v>
+        <v>42.13641</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>150KVA</t>
+          <t>112.5KVA</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Curto BC</t>
+          <t>Curto C Terra</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -13609,124 +13665,124 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>6K</t>
+          <t>5H</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>6K</t>
+          <t>5H</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>0.2209908</v>
+        <v>0.4556617</v>
       </c>
       <c r="G108" t="n">
-        <v>50.5124</v>
+        <v>42.11193</v>
       </c>
       <c r="H108" t="n">
-        <v>0.22015</v>
+        <v>0.4524291</v>
       </c>
       <c r="I108" t="n">
-        <v>50.67689</v>
+        <v>42.23293</v>
       </c>
       <c r="J108" t="n">
-        <v>0.2200112</v>
+        <v>0.4511741</v>
       </c>
       <c r="K108" t="n">
-        <v>50.70413</v>
+        <v>42.28026</v>
       </c>
       <c r="L108" t="n">
-        <v>0.220617</v>
+        <v>0.4537362</v>
       </c>
       <c r="M108" t="n">
-        <v>50.58539</v>
+        <v>42.18385</v>
       </c>
       <c r="N108" t="n">
-        <v>0.2207568</v>
+        <v>0.455005</v>
       </c>
       <c r="O108" t="n">
-        <v>50.55809</v>
+        <v>42.13641</v>
       </c>
       <c r="P108" t="n">
-        <v>0.220617</v>
+        <v>0.4537362</v>
       </c>
       <c r="Q108" t="n">
-        <v>50.58539</v>
+        <v>42.18385</v>
       </c>
       <c r="R108" t="n">
-        <v>0.2207568</v>
+        <v>0.455005</v>
       </c>
       <c r="S108" t="n">
-        <v>50.55809</v>
+        <v>42.13641</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>150KVA</t>
+          <t>112.5KVA</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Curto A Terra</t>
+          <t>Funcionamento Normal</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>BT Consumidor</t>
+          <t>Funcionamento Normal</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>6K</t>
+          <t>5H</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>6K</t>
+          <t>5H</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>0.2209908</v>
+        <v>0.4556617</v>
       </c>
       <c r="G109" t="n">
-        <v>50.5124</v>
+        <v>42.11193</v>
       </c>
       <c r="H109" t="n">
-        <v>0.22015</v>
+        <v>0.4524291</v>
       </c>
       <c r="I109" t="n">
-        <v>50.67689</v>
+        <v>42.23293</v>
       </c>
       <c r="J109" t="n">
-        <v>0.2200112</v>
+        <v>0.4511741</v>
       </c>
       <c r="K109" t="n">
-        <v>50.70413</v>
+        <v>42.28026</v>
       </c>
       <c r="L109" t="n">
-        <v>0.220617</v>
+        <v>0.4537362</v>
       </c>
       <c r="M109" t="n">
-        <v>50.58539</v>
+        <v>42.18385</v>
       </c>
       <c r="N109" t="n">
-        <v>0.2207568</v>
+        <v>0.455005</v>
       </c>
       <c r="O109" t="n">
-        <v>50.55809</v>
+        <v>42.13641</v>
       </c>
       <c r="P109" t="n">
-        <v>0.220617</v>
+        <v>0.4537362</v>
       </c>
       <c r="Q109" t="n">
-        <v>50.58539</v>
+        <v>42.18385</v>
       </c>
       <c r="R109" t="n">
-        <v>0.2207568</v>
+        <v>0.455005</v>
       </c>
       <c r="S109" t="n">
-        <v>50.55809</v>
+        <v>42.13641</v>
       </c>
     </row>
     <row r="110">
@@ -13737,7 +13793,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Curto B Terra</t>
+          <t>Curto ABC Terra</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -13806,7 +13862,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Curto C Terra</t>
+          <t>Curto ABC</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -13870,12 +13926,12 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>200KVA</t>
+          <t>150KVA</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Curto ABC Terra</t>
+          <t>Curto AB Terra</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -13885,66 +13941,66 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>10K</t>
+          <t>6K</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>10K</t>
+          <t>6K</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>0.4049231</v>
+        <v>0.2209908</v>
       </c>
       <c r="G112" t="n">
-        <v>59.16095</v>
+        <v>50.5124</v>
       </c>
       <c r="H112" t="n">
-        <v>0.4025192</v>
+        <v>0.22015</v>
       </c>
       <c r="I112" t="n">
-        <v>59.37481</v>
+        <v>50.67689</v>
       </c>
       <c r="J112" t="n">
-        <v>0.4025809</v>
+        <v>0.2200112</v>
       </c>
       <c r="K112" t="n">
-        <v>59.36928</v>
+        <v>50.70413</v>
       </c>
       <c r="L112" t="n">
-        <v>0.4041599</v>
+        <v>0.220617</v>
       </c>
       <c r="M112" t="n">
-        <v>59.2285</v>
+        <v>50.58539</v>
       </c>
       <c r="N112" t="n">
-        <v>0.4040975</v>
+        <v>0.2207568</v>
       </c>
       <c r="O112" t="n">
-        <v>59.23404</v>
+        <v>50.55809</v>
       </c>
       <c r="P112" t="n">
-        <v>0.4041599</v>
+        <v>0.220617</v>
       </c>
       <c r="Q112" t="n">
-        <v>59.2285</v>
+        <v>50.58539</v>
       </c>
       <c r="R112" t="n">
-        <v>0.4040975</v>
+        <v>0.2207568</v>
       </c>
       <c r="S112" t="n">
-        <v>59.23404</v>
+        <v>50.55809</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>200KVA</t>
+          <t>150KVA</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Curto ABC</t>
+          <t>Curto AB</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -13954,66 +14010,66 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>10K</t>
+          <t>6K</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>10K</t>
+          <t>6K</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>0.4049231</v>
+        <v>0.2209908</v>
       </c>
       <c r="G113" t="n">
-        <v>59.16095</v>
+        <v>50.5124</v>
       </c>
       <c r="H113" t="n">
-        <v>0.4025192</v>
+        <v>0.22015</v>
       </c>
       <c r="I113" t="n">
-        <v>59.37481</v>
+        <v>50.67689</v>
       </c>
       <c r="J113" t="n">
-        <v>0.4025809</v>
+        <v>0.2200112</v>
       </c>
       <c r="K113" t="n">
-        <v>59.36928</v>
+        <v>50.70413</v>
       </c>
       <c r="L113" t="n">
-        <v>0.4041599</v>
+        <v>0.220617</v>
       </c>
       <c r="M113" t="n">
-        <v>59.2285</v>
+        <v>50.58539</v>
       </c>
       <c r="N113" t="n">
-        <v>0.4040975</v>
+        <v>0.2207568</v>
       </c>
       <c r="O113" t="n">
-        <v>59.23404</v>
+        <v>50.55809</v>
       </c>
       <c r="P113" t="n">
-        <v>0.4041599</v>
+        <v>0.220617</v>
       </c>
       <c r="Q113" t="n">
-        <v>59.2285</v>
+        <v>50.58539</v>
       </c>
       <c r="R113" t="n">
-        <v>0.4040975</v>
+        <v>0.2207568</v>
       </c>
       <c r="S113" t="n">
-        <v>59.23404</v>
+        <v>50.55809</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>200KVA</t>
+          <t>150KVA</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Curto AB Terra</t>
+          <t>Curto AC Terra</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -14023,66 +14079,66 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>10K</t>
+          <t>6K</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>10K</t>
+          <t>6K</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>0.4049231</v>
+        <v>0.2209908</v>
       </c>
       <c r="G114" t="n">
-        <v>59.16095</v>
+        <v>50.5124</v>
       </c>
       <c r="H114" t="n">
-        <v>0.4025192</v>
+        <v>0.22015</v>
       </c>
       <c r="I114" t="n">
-        <v>59.37481</v>
+        <v>50.67689</v>
       </c>
       <c r="J114" t="n">
-        <v>0.4025809</v>
+        <v>0.2200112</v>
       </c>
       <c r="K114" t="n">
-        <v>59.36928</v>
+        <v>50.70413</v>
       </c>
       <c r="L114" t="n">
-        <v>0.4041599</v>
+        <v>0.220617</v>
       </c>
       <c r="M114" t="n">
-        <v>59.2285</v>
+        <v>50.58539</v>
       </c>
       <c r="N114" t="n">
-        <v>0.4040975</v>
+        <v>0.2207568</v>
       </c>
       <c r="O114" t="n">
-        <v>59.23404</v>
+        <v>50.55809</v>
       </c>
       <c r="P114" t="n">
-        <v>0.4041599</v>
+        <v>0.220617</v>
       </c>
       <c r="Q114" t="n">
-        <v>59.2285</v>
+        <v>50.58539</v>
       </c>
       <c r="R114" t="n">
-        <v>0.4040975</v>
+        <v>0.2207568</v>
       </c>
       <c r="S114" t="n">
-        <v>59.23404</v>
+        <v>50.55809</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>200KVA</t>
+          <t>150KVA</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Curto AB</t>
+          <t>Curto AC</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -14092,66 +14148,66 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>10K</t>
+          <t>6K</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>10K</t>
+          <t>6K</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>0.4049231</v>
+        <v>0.2209908</v>
       </c>
       <c r="G115" t="n">
-        <v>59.16095</v>
+        <v>50.5124</v>
       </c>
       <c r="H115" t="n">
-        <v>0.4025192</v>
+        <v>0.22015</v>
       </c>
       <c r="I115" t="n">
-        <v>59.37481</v>
+        <v>50.67689</v>
       </c>
       <c r="J115" t="n">
-        <v>0.4025809</v>
+        <v>0.2200112</v>
       </c>
       <c r="K115" t="n">
-        <v>59.36928</v>
+        <v>50.70413</v>
       </c>
       <c r="L115" t="n">
-        <v>0.4041599</v>
+        <v>0.220617</v>
       </c>
       <c r="M115" t="n">
-        <v>59.2285</v>
+        <v>50.58539</v>
       </c>
       <c r="N115" t="n">
-        <v>0.4040975</v>
+        <v>0.2207568</v>
       </c>
       <c r="O115" t="n">
-        <v>59.23404</v>
+        <v>50.55809</v>
       </c>
       <c r="P115" t="n">
-        <v>0.4041599</v>
+        <v>0.220617</v>
       </c>
       <c r="Q115" t="n">
-        <v>59.2285</v>
+        <v>50.58539</v>
       </c>
       <c r="R115" t="n">
-        <v>0.4040975</v>
+        <v>0.2207568</v>
       </c>
       <c r="S115" t="n">
-        <v>59.23404</v>
+        <v>50.55809</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>200KVA</t>
+          <t>150KVA</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Curto AC Terra</t>
+          <t>Curto BC Terra</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -14161,66 +14217,66 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>10K</t>
+          <t>6K</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>10K</t>
+          <t>6K</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>0.4049231</v>
+        <v>0.2209908</v>
       </c>
       <c r="G116" t="n">
-        <v>59.16095</v>
+        <v>50.5124</v>
       </c>
       <c r="H116" t="n">
-        <v>0.4025192</v>
+        <v>0.22015</v>
       </c>
       <c r="I116" t="n">
-        <v>59.37481</v>
+        <v>50.67689</v>
       </c>
       <c r="J116" t="n">
-        <v>0.4025809</v>
+        <v>0.2200112</v>
       </c>
       <c r="K116" t="n">
-        <v>59.36928</v>
+        <v>50.70413</v>
       </c>
       <c r="L116" t="n">
-        <v>0.4041599</v>
+        <v>0.220617</v>
       </c>
       <c r="M116" t="n">
-        <v>59.2285</v>
+        <v>50.58539</v>
       </c>
       <c r="N116" t="n">
-        <v>0.4040975</v>
+        <v>0.2207568</v>
       </c>
       <c r="O116" t="n">
-        <v>59.23404</v>
+        <v>50.55809</v>
       </c>
       <c r="P116" t="n">
-        <v>0.4041599</v>
+        <v>0.220617</v>
       </c>
       <c r="Q116" t="n">
-        <v>59.2285</v>
+        <v>50.58539</v>
       </c>
       <c r="R116" t="n">
-        <v>0.4040975</v>
+        <v>0.2207568</v>
       </c>
       <c r="S116" t="n">
-        <v>59.23404</v>
+        <v>50.55809</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>200KVA</t>
+          <t>150KVA</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Curto AC</t>
+          <t>Curto BC</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -14230,66 +14286,66 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>10K</t>
+          <t>6K</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>10K</t>
+          <t>6K</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>0.4049231</v>
+        <v>0.2209908</v>
       </c>
       <c r="G117" t="n">
-        <v>59.16095</v>
+        <v>50.5124</v>
       </c>
       <c r="H117" t="n">
-        <v>0.4025192</v>
+        <v>0.22015</v>
       </c>
       <c r="I117" t="n">
-        <v>59.37481</v>
+        <v>50.67689</v>
       </c>
       <c r="J117" t="n">
-        <v>0.4025809</v>
+        <v>0.2200112</v>
       </c>
       <c r="K117" t="n">
-        <v>59.36928</v>
+        <v>50.70413</v>
       </c>
       <c r="L117" t="n">
-        <v>0.4041599</v>
+        <v>0.220617</v>
       </c>
       <c r="M117" t="n">
-        <v>59.2285</v>
+        <v>50.58539</v>
       </c>
       <c r="N117" t="n">
-        <v>0.4040975</v>
+        <v>0.2207568</v>
       </c>
       <c r="O117" t="n">
-        <v>59.23404</v>
+        <v>50.55809</v>
       </c>
       <c r="P117" t="n">
-        <v>0.4041599</v>
+        <v>0.220617</v>
       </c>
       <c r="Q117" t="n">
-        <v>59.2285</v>
+        <v>50.58539</v>
       </c>
       <c r="R117" t="n">
-        <v>0.4040975</v>
+        <v>0.2207568</v>
       </c>
       <c r="S117" t="n">
-        <v>59.23404</v>
+        <v>50.55809</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>200KVA</t>
+          <t>150KVA</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Curto BC Terra</t>
+          <t>Curto A Terra</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -14299,66 +14355,66 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>10K</t>
+          <t>6K</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>10K</t>
+          <t>6K</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>0.4049231</v>
+        <v>0.2209908</v>
       </c>
       <c r="G118" t="n">
-        <v>59.16095</v>
+        <v>50.5124</v>
       </c>
       <c r="H118" t="n">
-        <v>0.4025192</v>
+        <v>0.22015</v>
       </c>
       <c r="I118" t="n">
-        <v>59.37481</v>
+        <v>50.67689</v>
       </c>
       <c r="J118" t="n">
-        <v>0.4025809</v>
+        <v>0.2200112</v>
       </c>
       <c r="K118" t="n">
-        <v>59.36928</v>
+        <v>50.70413</v>
       </c>
       <c r="L118" t="n">
-        <v>0.4041599</v>
+        <v>0.220617</v>
       </c>
       <c r="M118" t="n">
-        <v>59.2285</v>
+        <v>50.58539</v>
       </c>
       <c r="N118" t="n">
-        <v>0.4040975</v>
+        <v>0.2207568</v>
       </c>
       <c r="O118" t="n">
-        <v>59.23404</v>
+        <v>50.55809</v>
       </c>
       <c r="P118" t="n">
-        <v>0.4041599</v>
+        <v>0.220617</v>
       </c>
       <c r="Q118" t="n">
-        <v>59.2285</v>
+        <v>50.58539</v>
       </c>
       <c r="R118" t="n">
-        <v>0.4040975</v>
+        <v>0.2207568</v>
       </c>
       <c r="S118" t="n">
-        <v>59.23404</v>
+        <v>50.55809</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>200KVA</t>
+          <t>150KVA</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Curto BC</t>
+          <t>Curto B Terra</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -14368,66 +14424,66 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>10K</t>
+          <t>6K</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>10K</t>
+          <t>6K</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>0.4049231</v>
+        <v>0.2209908</v>
       </c>
       <c r="G119" t="n">
-        <v>59.16095</v>
+        <v>50.5124</v>
       </c>
       <c r="H119" t="n">
-        <v>0.4025192</v>
+        <v>0.22015</v>
       </c>
       <c r="I119" t="n">
-        <v>59.37481</v>
+        <v>50.67689</v>
       </c>
       <c r="J119" t="n">
-        <v>0.4025809</v>
+        <v>0.2200112</v>
       </c>
       <c r="K119" t="n">
-        <v>59.36928</v>
+        <v>50.70413</v>
       </c>
       <c r="L119" t="n">
-        <v>0.4041599</v>
+        <v>0.220617</v>
       </c>
       <c r="M119" t="n">
-        <v>59.2285</v>
+        <v>50.58539</v>
       </c>
       <c r="N119" t="n">
-        <v>0.4040975</v>
+        <v>0.2207568</v>
       </c>
       <c r="O119" t="n">
-        <v>59.23404</v>
+        <v>50.55809</v>
       </c>
       <c r="P119" t="n">
-        <v>0.4041599</v>
+        <v>0.220617</v>
       </c>
       <c r="Q119" t="n">
-        <v>59.2285</v>
+        <v>50.58539</v>
       </c>
       <c r="R119" t="n">
-        <v>0.4040975</v>
+        <v>0.2207568</v>
       </c>
       <c r="S119" t="n">
-        <v>59.23404</v>
+        <v>50.55809</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>200KVA</t>
+          <t>150KVA</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Curto A Terra</t>
+          <t>Curto C Terra</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -14437,124 +14493,124 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>10K</t>
+          <t>6K</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>10K</t>
+          <t>6K</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>0.4049231</v>
+        <v>0.2209908</v>
       </c>
       <c r="G120" t="n">
-        <v>59.16095</v>
+        <v>50.5124</v>
       </c>
       <c r="H120" t="n">
-        <v>0.4025192</v>
+        <v>0.22015</v>
       </c>
       <c r="I120" t="n">
-        <v>59.37481</v>
+        <v>50.67689</v>
       </c>
       <c r="J120" t="n">
-        <v>0.4025809</v>
+        <v>0.2200112</v>
       </c>
       <c r="K120" t="n">
-        <v>59.36928</v>
+        <v>50.70413</v>
       </c>
       <c r="L120" t="n">
-        <v>0.4041599</v>
+        <v>0.220617</v>
       </c>
       <c r="M120" t="n">
-        <v>59.2285</v>
+        <v>50.58539</v>
       </c>
       <c r="N120" t="n">
-        <v>0.4040975</v>
+        <v>0.2207568</v>
       </c>
       <c r="O120" t="n">
-        <v>59.23404</v>
+        <v>50.55809</v>
       </c>
       <c r="P120" t="n">
-        <v>0.4041599</v>
+        <v>0.220617</v>
       </c>
       <c r="Q120" t="n">
-        <v>59.2285</v>
+        <v>50.58539</v>
       </c>
       <c r="R120" t="n">
-        <v>0.4040975</v>
+        <v>0.2207568</v>
       </c>
       <c r="S120" t="n">
-        <v>59.23404</v>
+        <v>50.55809</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>200KVA</t>
+          <t>150KVA</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Curto B Terra</t>
+          <t>Funcionamento Normal</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>BT Consumidor</t>
+          <t>Funcionamento Normal</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>10K</t>
+          <t>6K</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>10K</t>
+          <t>6K</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>0.4049231</v>
+        <v>0.2209908</v>
       </c>
       <c r="G121" t="n">
-        <v>59.16095</v>
+        <v>50.5124</v>
       </c>
       <c r="H121" t="n">
-        <v>0.4025192</v>
+        <v>0.22015</v>
       </c>
       <c r="I121" t="n">
-        <v>59.37481</v>
+        <v>50.67689</v>
       </c>
       <c r="J121" t="n">
-        <v>0.4025809</v>
+        <v>0.2200112</v>
       </c>
       <c r="K121" t="n">
-        <v>59.36928</v>
+        <v>50.70413</v>
       </c>
       <c r="L121" t="n">
-        <v>0.4041599</v>
+        <v>0.220617</v>
       </c>
       <c r="M121" t="n">
-        <v>59.2285</v>
+        <v>50.58539</v>
       </c>
       <c r="N121" t="n">
-        <v>0.4040975</v>
+        <v>0.2207568</v>
       </c>
       <c r="O121" t="n">
-        <v>59.23404</v>
+        <v>50.55809</v>
       </c>
       <c r="P121" t="n">
-        <v>0.4041599</v>
+        <v>0.220617</v>
       </c>
       <c r="Q121" t="n">
-        <v>59.2285</v>
+        <v>50.58539</v>
       </c>
       <c r="R121" t="n">
-        <v>0.4040975</v>
+        <v>0.2207568</v>
       </c>
       <c r="S121" t="n">
-        <v>59.23404</v>
+        <v>50.55809</v>
       </c>
     </row>
     <row r="122">
@@ -14565,7 +14621,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Curto C Terra</t>
+          <t>Curto ABC Terra</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -14629,12 +14685,12 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>225KVA</t>
+          <t>200KVA</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Curto ABC Terra</t>
+          <t>Curto ABC</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -14653,57 +14709,57 @@
         </is>
       </c>
       <c r="F123" t="n">
-        <v>0.3695697</v>
+        <v>0.4049231</v>
       </c>
       <c r="G123" t="n">
-        <v>62.66634</v>
+        <v>59.16095</v>
       </c>
       <c r="H123" t="n">
-        <v>0.367473</v>
+        <v>0.4025192</v>
       </c>
       <c r="I123" t="n">
-        <v>62.90122</v>
+        <v>59.37481</v>
       </c>
       <c r="J123" t="n">
-        <v>0.3676717</v>
+        <v>0.4025809</v>
       </c>
       <c r="K123" t="n">
-        <v>62.87881</v>
+        <v>59.36928</v>
       </c>
       <c r="L123" t="n">
-        <v>0.3690019</v>
+        <v>0.4041599</v>
       </c>
       <c r="M123" t="n">
-        <v>62.72961</v>
+        <v>59.2285</v>
       </c>
       <c r="N123" t="n">
-        <v>0.3688009</v>
+        <v>0.4040975</v>
       </c>
       <c r="O123" t="n">
-        <v>62.75207</v>
+        <v>59.23404</v>
       </c>
       <c r="P123" t="n">
-        <v>0.3690019</v>
+        <v>0.4041599</v>
       </c>
       <c r="Q123" t="n">
-        <v>62.72961</v>
+        <v>59.2285</v>
       </c>
       <c r="R123" t="n">
-        <v>0.3688009</v>
+        <v>0.4040975</v>
       </c>
       <c r="S123" t="n">
-        <v>62.75207</v>
+        <v>59.23404</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>225KVA</t>
+          <t>200KVA</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Curto ABC</t>
+          <t>Curto AB Terra</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -14722,57 +14778,57 @@
         </is>
       </c>
       <c r="F124" t="n">
-        <v>0.3695697</v>
+        <v>0.4049231</v>
       </c>
       <c r="G124" t="n">
-        <v>62.66634</v>
+        <v>59.16095</v>
       </c>
       <c r="H124" t="n">
-        <v>0.367473</v>
+        <v>0.4025192</v>
       </c>
       <c r="I124" t="n">
-        <v>62.90122</v>
+        <v>59.37481</v>
       </c>
       <c r="J124" t="n">
-        <v>0.3676717</v>
+        <v>0.4025809</v>
       </c>
       <c r="K124" t="n">
-        <v>62.87881</v>
+        <v>59.36928</v>
       </c>
       <c r="L124" t="n">
-        <v>0.3690019</v>
+        <v>0.4041599</v>
       </c>
       <c r="M124" t="n">
-        <v>62.72961</v>
+        <v>59.2285</v>
       </c>
       <c r="N124" t="n">
-        <v>0.3688009</v>
+        <v>0.4040975</v>
       </c>
       <c r="O124" t="n">
-        <v>62.75207</v>
+        <v>59.23404</v>
       </c>
       <c r="P124" t="n">
-        <v>0.3690019</v>
+        <v>0.4041599</v>
       </c>
       <c r="Q124" t="n">
-        <v>62.72961</v>
+        <v>59.2285</v>
       </c>
       <c r="R124" t="n">
-        <v>0.3688009</v>
+        <v>0.4040975</v>
       </c>
       <c r="S124" t="n">
-        <v>62.75207</v>
+        <v>59.23404</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>225KVA</t>
+          <t>200KVA</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Curto AB Terra</t>
+          <t>Curto AB</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -14791,57 +14847,57 @@
         </is>
       </c>
       <c r="F125" t="n">
-        <v>0.3695697</v>
+        <v>0.4049231</v>
       </c>
       <c r="G125" t="n">
-        <v>62.66634</v>
+        <v>59.16095</v>
       </c>
       <c r="H125" t="n">
-        <v>0.367473</v>
+        <v>0.4025192</v>
       </c>
       <c r="I125" t="n">
-        <v>62.90122</v>
+        <v>59.37481</v>
       </c>
       <c r="J125" t="n">
-        <v>0.3676717</v>
+        <v>0.4025809</v>
       </c>
       <c r="K125" t="n">
-        <v>62.87881</v>
+        <v>59.36928</v>
       </c>
       <c r="L125" t="n">
-        <v>0.3690019</v>
+        <v>0.4041599</v>
       </c>
       <c r="M125" t="n">
-        <v>62.72961</v>
+        <v>59.2285</v>
       </c>
       <c r="N125" t="n">
-        <v>0.3688009</v>
+        <v>0.4040975</v>
       </c>
       <c r="O125" t="n">
-        <v>62.75207</v>
+        <v>59.23404</v>
       </c>
       <c r="P125" t="n">
-        <v>0.3690019</v>
+        <v>0.4041599</v>
       </c>
       <c r="Q125" t="n">
-        <v>62.72961</v>
+        <v>59.2285</v>
       </c>
       <c r="R125" t="n">
-        <v>0.3688009</v>
+        <v>0.4040975</v>
       </c>
       <c r="S125" t="n">
-        <v>62.75207</v>
+        <v>59.23404</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>225KVA</t>
+          <t>200KVA</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Curto AB</t>
+          <t>Curto AC Terra</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -14860,57 +14916,57 @@
         </is>
       </c>
       <c r="F126" t="n">
-        <v>0.3695697</v>
+        <v>0.4049231</v>
       </c>
       <c r="G126" t="n">
-        <v>62.66634</v>
+        <v>59.16095</v>
       </c>
       <c r="H126" t="n">
-        <v>0.367473</v>
+        <v>0.4025192</v>
       </c>
       <c r="I126" t="n">
-        <v>62.90122</v>
+        <v>59.37481</v>
       </c>
       <c r="J126" t="n">
-        <v>0.3676717</v>
+        <v>0.4025809</v>
       </c>
       <c r="K126" t="n">
-        <v>62.87881</v>
+        <v>59.36928</v>
       </c>
       <c r="L126" t="n">
-        <v>0.3690019</v>
+        <v>0.4041599</v>
       </c>
       <c r="M126" t="n">
-        <v>62.72961</v>
+        <v>59.2285</v>
       </c>
       <c r="N126" t="n">
-        <v>0.3688009</v>
+        <v>0.4040975</v>
       </c>
       <c r="O126" t="n">
-        <v>62.75207</v>
+        <v>59.23404</v>
       </c>
       <c r="P126" t="n">
-        <v>0.3690019</v>
+        <v>0.4041599</v>
       </c>
       <c r="Q126" t="n">
-        <v>62.72961</v>
+        <v>59.2285</v>
       </c>
       <c r="R126" t="n">
-        <v>0.3688009</v>
+        <v>0.4040975</v>
       </c>
       <c r="S126" t="n">
-        <v>62.75207</v>
+        <v>59.23404</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>225KVA</t>
+          <t>200KVA</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Curto AC Terra</t>
+          <t>Curto AC</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -14929,57 +14985,57 @@
         </is>
       </c>
       <c r="F127" t="n">
-        <v>0.3695697</v>
+        <v>0.4049231</v>
       </c>
       <c r="G127" t="n">
-        <v>62.66634</v>
+        <v>59.16095</v>
       </c>
       <c r="H127" t="n">
-        <v>0.367473</v>
+        <v>0.4025192</v>
       </c>
       <c r="I127" t="n">
-        <v>62.90122</v>
+        <v>59.37481</v>
       </c>
       <c r="J127" t="n">
-        <v>0.3676717</v>
+        <v>0.4025809</v>
       </c>
       <c r="K127" t="n">
-        <v>62.87881</v>
+        <v>59.36928</v>
       </c>
       <c r="L127" t="n">
-        <v>0.3690019</v>
+        <v>0.4041599</v>
       </c>
       <c r="M127" t="n">
-        <v>62.72961</v>
+        <v>59.2285</v>
       </c>
       <c r="N127" t="n">
-        <v>0.3688009</v>
+        <v>0.4040975</v>
       </c>
       <c r="O127" t="n">
-        <v>62.75207</v>
+        <v>59.23404</v>
       </c>
       <c r="P127" t="n">
-        <v>0.3690019</v>
+        <v>0.4041599</v>
       </c>
       <c r="Q127" t="n">
-        <v>62.72961</v>
+        <v>59.2285</v>
       </c>
       <c r="R127" t="n">
-        <v>0.3688009</v>
+        <v>0.4040975</v>
       </c>
       <c r="S127" t="n">
-        <v>62.75207</v>
+        <v>59.23404</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>225KVA</t>
+          <t>200KVA</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Curto AC</t>
+          <t>Curto BC Terra</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -14998,57 +15054,57 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>0.3695697</v>
+        <v>0.4049231</v>
       </c>
       <c r="G128" t="n">
-        <v>62.66634</v>
+        <v>59.16095</v>
       </c>
       <c r="H128" t="n">
-        <v>0.367473</v>
+        <v>0.4025192</v>
       </c>
       <c r="I128" t="n">
-        <v>62.90122</v>
+        <v>59.37481</v>
       </c>
       <c r="J128" t="n">
-        <v>0.3676717</v>
+        <v>0.4025809</v>
       </c>
       <c r="K128" t="n">
-        <v>62.87881</v>
+        <v>59.36928</v>
       </c>
       <c r="L128" t="n">
-        <v>0.3690019</v>
+        <v>0.4041599</v>
       </c>
       <c r="M128" t="n">
-        <v>62.72961</v>
+        <v>59.2285</v>
       </c>
       <c r="N128" t="n">
-        <v>0.3688009</v>
+        <v>0.4040975</v>
       </c>
       <c r="O128" t="n">
-        <v>62.75207</v>
+        <v>59.23404</v>
       </c>
       <c r="P128" t="n">
-        <v>0.3690019</v>
+        <v>0.4041599</v>
       </c>
       <c r="Q128" t="n">
-        <v>62.72961</v>
+        <v>59.2285</v>
       </c>
       <c r="R128" t="n">
-        <v>0.3688009</v>
+        <v>0.4040975</v>
       </c>
       <c r="S128" t="n">
-        <v>62.75207</v>
+        <v>59.23404</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>225KVA</t>
+          <t>200KVA</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Curto BC Terra</t>
+          <t>Curto BC</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -15067,57 +15123,57 @@
         </is>
       </c>
       <c r="F129" t="n">
-        <v>0.3695697</v>
+        <v>0.4049231</v>
       </c>
       <c r="G129" t="n">
-        <v>62.66634</v>
+        <v>59.16095</v>
       </c>
       <c r="H129" t="n">
-        <v>0.367473</v>
+        <v>0.4025192</v>
       </c>
       <c r="I129" t="n">
-        <v>62.90122</v>
+        <v>59.37481</v>
       </c>
       <c r="J129" t="n">
-        <v>0.3676717</v>
+        <v>0.4025809</v>
       </c>
       <c r="K129" t="n">
-        <v>62.87881</v>
+        <v>59.36928</v>
       </c>
       <c r="L129" t="n">
-        <v>0.3690019</v>
+        <v>0.4041599</v>
       </c>
       <c r="M129" t="n">
-        <v>62.72961</v>
+        <v>59.2285</v>
       </c>
       <c r="N129" t="n">
-        <v>0.3688009</v>
+        <v>0.4040975</v>
       </c>
       <c r="O129" t="n">
-        <v>62.75207</v>
+        <v>59.23404</v>
       </c>
       <c r="P129" t="n">
-        <v>0.3690019</v>
+        <v>0.4041599</v>
       </c>
       <c r="Q129" t="n">
-        <v>62.72961</v>
+        <v>59.2285</v>
       </c>
       <c r="R129" t="n">
-        <v>0.3688009</v>
+        <v>0.4040975</v>
       </c>
       <c r="S129" t="n">
-        <v>62.75207</v>
+        <v>59.23404</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>225KVA</t>
+          <t>200KVA</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Curto BC</t>
+          <t>Curto A Terra</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -15136,57 +15192,57 @@
         </is>
       </c>
       <c r="F130" t="n">
-        <v>0.3695697</v>
+        <v>0.4049231</v>
       </c>
       <c r="G130" t="n">
-        <v>62.66634</v>
+        <v>59.16095</v>
       </c>
       <c r="H130" t="n">
-        <v>0.367473</v>
+        <v>0.4025192</v>
       </c>
       <c r="I130" t="n">
-        <v>62.90122</v>
+        <v>59.37481</v>
       </c>
       <c r="J130" t="n">
-        <v>0.3676717</v>
+        <v>0.4025809</v>
       </c>
       <c r="K130" t="n">
-        <v>62.87881</v>
+        <v>59.36928</v>
       </c>
       <c r="L130" t="n">
-        <v>0.3690019</v>
+        <v>0.4041599</v>
       </c>
       <c r="M130" t="n">
-        <v>62.72961</v>
+        <v>59.2285</v>
       </c>
       <c r="N130" t="n">
-        <v>0.3688009</v>
+        <v>0.4040975</v>
       </c>
       <c r="O130" t="n">
-        <v>62.75207</v>
+        <v>59.23404</v>
       </c>
       <c r="P130" t="n">
-        <v>0.3690019</v>
+        <v>0.4041599</v>
       </c>
       <c r="Q130" t="n">
-        <v>62.72961</v>
+        <v>59.2285</v>
       </c>
       <c r="R130" t="n">
-        <v>0.3688009</v>
+        <v>0.4040975</v>
       </c>
       <c r="S130" t="n">
-        <v>62.75207</v>
+        <v>59.23404</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>225KVA</t>
+          <t>200KVA</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Curto A Terra</t>
+          <t>Curto B Terra</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -15205,57 +15261,57 @@
         </is>
       </c>
       <c r="F131" t="n">
-        <v>0.3695697</v>
+        <v>0.4049231</v>
       </c>
       <c r="G131" t="n">
-        <v>62.66634</v>
+        <v>59.16095</v>
       </c>
       <c r="H131" t="n">
-        <v>0.367473</v>
+        <v>0.4025192</v>
       </c>
       <c r="I131" t="n">
-        <v>62.90122</v>
+        <v>59.37481</v>
       </c>
       <c r="J131" t="n">
-        <v>0.3676717</v>
+        <v>0.4025809</v>
       </c>
       <c r="K131" t="n">
-        <v>62.87881</v>
+        <v>59.36928</v>
       </c>
       <c r="L131" t="n">
-        <v>0.3690019</v>
+        <v>0.4041599</v>
       </c>
       <c r="M131" t="n">
-        <v>62.72961</v>
+        <v>59.2285</v>
       </c>
       <c r="N131" t="n">
-        <v>0.3688009</v>
+        <v>0.4040975</v>
       </c>
       <c r="O131" t="n">
-        <v>62.75207</v>
+        <v>59.23404</v>
       </c>
       <c r="P131" t="n">
-        <v>0.3690019</v>
+        <v>0.4041599</v>
       </c>
       <c r="Q131" t="n">
-        <v>62.72961</v>
+        <v>59.2285</v>
       </c>
       <c r="R131" t="n">
-        <v>0.3688009</v>
+        <v>0.4040975</v>
       </c>
       <c r="S131" t="n">
-        <v>62.75207</v>
+        <v>59.23404</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>225KVA</t>
+          <t>200KVA</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Curto B Terra</t>
+          <t>Curto C Terra</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -15274,62 +15330,62 @@
         </is>
       </c>
       <c r="F132" t="n">
-        <v>0.3695697</v>
+        <v>0.4049231</v>
       </c>
       <c r="G132" t="n">
-        <v>62.66634</v>
+        <v>59.16095</v>
       </c>
       <c r="H132" t="n">
-        <v>0.367473</v>
+        <v>0.4025192</v>
       </c>
       <c r="I132" t="n">
-        <v>62.90122</v>
+        <v>59.37481</v>
       </c>
       <c r="J132" t="n">
-        <v>0.3676717</v>
+        <v>0.4025809</v>
       </c>
       <c r="K132" t="n">
-        <v>62.87881</v>
+        <v>59.36928</v>
       </c>
       <c r="L132" t="n">
-        <v>0.3690019</v>
+        <v>0.4041599</v>
       </c>
       <c r="M132" t="n">
-        <v>62.72961</v>
+        <v>59.2285</v>
       </c>
       <c r="N132" t="n">
-        <v>0.3688009</v>
+        <v>0.4040975</v>
       </c>
       <c r="O132" t="n">
-        <v>62.75207</v>
+        <v>59.23404</v>
       </c>
       <c r="P132" t="n">
-        <v>0.3690019</v>
+        <v>0.4041599</v>
       </c>
       <c r="Q132" t="n">
-        <v>62.72961</v>
+        <v>59.2285</v>
       </c>
       <c r="R132" t="n">
-        <v>0.3688009</v>
+        <v>0.4040975</v>
       </c>
       <c r="S132" t="n">
-        <v>62.75207</v>
+        <v>59.23404</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>225KVA</t>
+          <t>200KVA</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Curto C Terra</t>
+          <t>Funcionamento Normal</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>BT Consumidor</t>
+          <t>Funcionamento Normal</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -15343,52 +15399,52 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>0.3695697</v>
+        <v>0.4049231</v>
       </c>
       <c r="G133" t="n">
-        <v>62.66634</v>
+        <v>59.16095</v>
       </c>
       <c r="H133" t="n">
-        <v>0.367473</v>
+        <v>0.4025192</v>
       </c>
       <c r="I133" t="n">
-        <v>62.90122</v>
+        <v>59.37481</v>
       </c>
       <c r="J133" t="n">
-        <v>0.3676717</v>
+        <v>0.4025809</v>
       </c>
       <c r="K133" t="n">
-        <v>62.87881</v>
+        <v>59.36928</v>
       </c>
       <c r="L133" t="n">
-        <v>0.3690019</v>
+        <v>0.4041599</v>
       </c>
       <c r="M133" t="n">
-        <v>62.72961</v>
+        <v>59.2285</v>
       </c>
       <c r="N133" t="n">
-        <v>0.3688009</v>
+        <v>0.4040975</v>
       </c>
       <c r="O133" t="n">
-        <v>62.75207</v>
+        <v>59.23404</v>
       </c>
       <c r="P133" t="n">
-        <v>0.3690019</v>
+        <v>0.4041599</v>
       </c>
       <c r="Q133" t="n">
-        <v>62.72961</v>
+        <v>59.2285</v>
       </c>
       <c r="R133" t="n">
-        <v>0.3688009</v>
+        <v>0.4040975</v>
       </c>
       <c r="S133" t="n">
-        <v>62.75207</v>
+        <v>59.23404</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>250KVA</t>
+          <t>225KVA</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -15403,61 +15459,61 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>12K</t>
+          <t>10K</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>12K</t>
+          <t>10K</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>0.564563</v>
+        <v>0.3695697</v>
       </c>
       <c r="G134" t="n">
-        <v>65.74578</v>
+        <v>62.66634</v>
       </c>
       <c r="H134" t="n">
-        <v>0.5598704</v>
+        <v>0.367473</v>
       </c>
       <c r="I134" t="n">
-        <v>65.99948000000001</v>
+        <v>62.90122</v>
       </c>
       <c r="J134" t="n">
-        <v>0.5605855</v>
+        <v>0.3676717</v>
       </c>
       <c r="K134" t="n">
-        <v>65.96051</v>
+        <v>62.87881</v>
       </c>
       <c r="L134" t="n">
-        <v>0.5634735</v>
+        <v>0.3690019</v>
       </c>
       <c r="M134" t="n">
-        <v>65.80426</v>
+        <v>62.72961</v>
       </c>
       <c r="N134" t="n">
-        <v>0.5627483</v>
+        <v>0.3688009</v>
       </c>
       <c r="O134" t="n">
-        <v>65.84332000000001</v>
+        <v>62.75207</v>
       </c>
       <c r="P134" t="n">
-        <v>0.5634735</v>
+        <v>0.3690019</v>
       </c>
       <c r="Q134" t="n">
-        <v>65.80426</v>
+        <v>62.72961</v>
       </c>
       <c r="R134" t="n">
-        <v>0.5627483</v>
+        <v>0.3688009</v>
       </c>
       <c r="S134" t="n">
-        <v>65.84332000000001</v>
+        <v>62.75207</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>250KVA</t>
+          <t>225KVA</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -15472,61 +15528,61 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>12K</t>
+          <t>10K</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>12K</t>
+          <t>10K</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>0.564563</v>
+        <v>0.3695697</v>
       </c>
       <c r="G135" t="n">
-        <v>65.74578</v>
+        <v>62.66634</v>
       </c>
       <c r="H135" t="n">
-        <v>0.5598704</v>
+        <v>0.367473</v>
       </c>
       <c r="I135" t="n">
-        <v>65.99948000000001</v>
+        <v>62.90122</v>
       </c>
       <c r="J135" t="n">
-        <v>0.5605855</v>
+        <v>0.3676717</v>
       </c>
       <c r="K135" t="n">
-        <v>65.96051</v>
+        <v>62.87881</v>
       </c>
       <c r="L135" t="n">
-        <v>0.5634735</v>
+        <v>0.3690019</v>
       </c>
       <c r="M135" t="n">
-        <v>65.80426</v>
+        <v>62.72961</v>
       </c>
       <c r="N135" t="n">
-        <v>0.5627483</v>
+        <v>0.3688009</v>
       </c>
       <c r="O135" t="n">
-        <v>65.84332000000001</v>
+        <v>62.75207</v>
       </c>
       <c r="P135" t="n">
-        <v>0.5634735</v>
+        <v>0.3690019</v>
       </c>
       <c r="Q135" t="n">
-        <v>65.80426</v>
+        <v>62.72961</v>
       </c>
       <c r="R135" t="n">
-        <v>0.5627483</v>
+        <v>0.3688009</v>
       </c>
       <c r="S135" t="n">
-        <v>65.84332000000001</v>
+        <v>62.75207</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>250KVA</t>
+          <t>225KVA</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -15541,61 +15597,61 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>12K</t>
+          <t>10K</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>12K</t>
+          <t>10K</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>0.564563</v>
+        <v>0.3695697</v>
       </c>
       <c r="G136" t="n">
-        <v>65.74578</v>
+        <v>62.66634</v>
       </c>
       <c r="H136" t="n">
-        <v>0.5598704</v>
+        <v>0.367473</v>
       </c>
       <c r="I136" t="n">
-        <v>65.99948000000001</v>
+        <v>62.90122</v>
       </c>
       <c r="J136" t="n">
-        <v>0.5605855</v>
+        <v>0.3676717</v>
       </c>
       <c r="K136" t="n">
-        <v>65.96051</v>
+        <v>62.87881</v>
       </c>
       <c r="L136" t="n">
-        <v>0.5634735</v>
+        <v>0.3690019</v>
       </c>
       <c r="M136" t="n">
-        <v>65.80426</v>
+        <v>62.72961</v>
       </c>
       <c r="N136" t="n">
-        <v>0.5627483</v>
+        <v>0.3688009</v>
       </c>
       <c r="O136" t="n">
-        <v>65.84332000000001</v>
+        <v>62.75207</v>
       </c>
       <c r="P136" t="n">
-        <v>0.5634735</v>
+        <v>0.3690019</v>
       </c>
       <c r="Q136" t="n">
-        <v>65.80426</v>
+        <v>62.72961</v>
       </c>
       <c r="R136" t="n">
-        <v>0.5627483</v>
+        <v>0.3688009</v>
       </c>
       <c r="S136" t="n">
-        <v>65.84332000000001</v>
+        <v>62.75207</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>250KVA</t>
+          <t>225KVA</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -15610,61 +15666,61 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>12K</t>
+          <t>10K</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>12K</t>
+          <t>10K</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>0.564563</v>
+        <v>0.3695697</v>
       </c>
       <c r="G137" t="n">
-        <v>65.74578</v>
+        <v>62.66634</v>
       </c>
       <c r="H137" t="n">
-        <v>0.5598704</v>
+        <v>0.367473</v>
       </c>
       <c r="I137" t="n">
-        <v>65.99948000000001</v>
+        <v>62.90122</v>
       </c>
       <c r="J137" t="n">
-        <v>0.5605855</v>
+        <v>0.3676717</v>
       </c>
       <c r="K137" t="n">
-        <v>65.96051</v>
+        <v>62.87881</v>
       </c>
       <c r="L137" t="n">
-        <v>0.5634735</v>
+        <v>0.3690019</v>
       </c>
       <c r="M137" t="n">
-        <v>65.80426</v>
+        <v>62.72961</v>
       </c>
       <c r="N137" t="n">
-        <v>0.5627483</v>
+        <v>0.3688009</v>
       </c>
       <c r="O137" t="n">
-        <v>65.84332000000001</v>
+        <v>62.75207</v>
       </c>
       <c r="P137" t="n">
-        <v>0.5634735</v>
+        <v>0.3690019</v>
       </c>
       <c r="Q137" t="n">
-        <v>65.80426</v>
+        <v>62.72961</v>
       </c>
       <c r="R137" t="n">
-        <v>0.5627483</v>
+        <v>0.3688009</v>
       </c>
       <c r="S137" t="n">
-        <v>65.84332000000001</v>
+        <v>62.75207</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>250KVA</t>
+          <t>225KVA</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -15679,61 +15735,61 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>12K</t>
+          <t>10K</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>12K</t>
+          <t>10K</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>0.564563</v>
+        <v>0.3695697</v>
       </c>
       <c r="G138" t="n">
-        <v>65.74578</v>
+        <v>62.66634</v>
       </c>
       <c r="H138" t="n">
-        <v>0.5598704</v>
+        <v>0.367473</v>
       </c>
       <c r="I138" t="n">
-        <v>65.99948000000001</v>
+        <v>62.90122</v>
       </c>
       <c r="J138" t="n">
-        <v>0.5605855</v>
+        <v>0.3676717</v>
       </c>
       <c r="K138" t="n">
-        <v>65.96051</v>
+        <v>62.87881</v>
       </c>
       <c r="L138" t="n">
-        <v>0.5634735</v>
+        <v>0.3690019</v>
       </c>
       <c r="M138" t="n">
-        <v>65.80426</v>
+        <v>62.72961</v>
       </c>
       <c r="N138" t="n">
-        <v>0.5627483</v>
+        <v>0.3688009</v>
       </c>
       <c r="O138" t="n">
-        <v>65.84332000000001</v>
+        <v>62.75207</v>
       </c>
       <c r="P138" t="n">
-        <v>0.5634735</v>
+        <v>0.3690019</v>
       </c>
       <c r="Q138" t="n">
-        <v>65.80426</v>
+        <v>62.72961</v>
       </c>
       <c r="R138" t="n">
-        <v>0.5627483</v>
+        <v>0.3688009</v>
       </c>
       <c r="S138" t="n">
-        <v>65.84332000000001</v>
+        <v>62.75207</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>250KVA</t>
+          <t>225KVA</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -15748,61 +15804,61 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>12K</t>
+          <t>10K</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>12K</t>
+          <t>10K</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>0.564563</v>
+        <v>0.3695697</v>
       </c>
       <c r="G139" t="n">
-        <v>65.74578</v>
+        <v>62.66634</v>
       </c>
       <c r="H139" t="n">
-        <v>0.5598704</v>
+        <v>0.367473</v>
       </c>
       <c r="I139" t="n">
-        <v>65.99948000000001</v>
+        <v>62.90122</v>
       </c>
       <c r="J139" t="n">
-        <v>0.5605855</v>
+        <v>0.3676717</v>
       </c>
       <c r="K139" t="n">
-        <v>65.96051</v>
+        <v>62.87881</v>
       </c>
       <c r="L139" t="n">
-        <v>0.5634735</v>
+        <v>0.3690019</v>
       </c>
       <c r="M139" t="n">
-        <v>65.80426</v>
+        <v>62.72961</v>
       </c>
       <c r="N139" t="n">
-        <v>0.5627483</v>
+        <v>0.3688009</v>
       </c>
       <c r="O139" t="n">
-        <v>65.84332000000001</v>
+        <v>62.75207</v>
       </c>
       <c r="P139" t="n">
-        <v>0.5634735</v>
+        <v>0.3690019</v>
       </c>
       <c r="Q139" t="n">
-        <v>65.80426</v>
+        <v>62.72961</v>
       </c>
       <c r="R139" t="n">
-        <v>0.5627483</v>
+        <v>0.3688009</v>
       </c>
       <c r="S139" t="n">
-        <v>65.84332000000001</v>
+        <v>62.75207</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>250KVA</t>
+          <t>225KVA</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -15817,61 +15873,61 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>12K</t>
+          <t>10K</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>12K</t>
+          <t>10K</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>0.564563</v>
+        <v>0.3695697</v>
       </c>
       <c r="G140" t="n">
-        <v>65.74578</v>
+        <v>62.66634</v>
       </c>
       <c r="H140" t="n">
-        <v>0.5598704</v>
+        <v>0.367473</v>
       </c>
       <c r="I140" t="n">
-        <v>65.99948000000001</v>
+        <v>62.90122</v>
       </c>
       <c r="J140" t="n">
-        <v>0.5605855</v>
+        <v>0.3676717</v>
       </c>
       <c r="K140" t="n">
-        <v>65.96051</v>
+        <v>62.87881</v>
       </c>
       <c r="L140" t="n">
-        <v>0.5634735</v>
+        <v>0.3690019</v>
       </c>
       <c r="M140" t="n">
-        <v>65.80426</v>
+        <v>62.72961</v>
       </c>
       <c r="N140" t="n">
-        <v>0.5627483</v>
+        <v>0.3688009</v>
       </c>
       <c r="O140" t="n">
-        <v>65.84332000000001</v>
+        <v>62.75207</v>
       </c>
       <c r="P140" t="n">
-        <v>0.5634735</v>
+        <v>0.3690019</v>
       </c>
       <c r="Q140" t="n">
-        <v>65.80426</v>
+        <v>62.72961</v>
       </c>
       <c r="R140" t="n">
-        <v>0.5627483</v>
+        <v>0.3688009</v>
       </c>
       <c r="S140" t="n">
-        <v>65.84332000000001</v>
+        <v>62.75207</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>250KVA</t>
+          <t>225KVA</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -15886,61 +15942,61 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>12K</t>
+          <t>10K</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>12K</t>
+          <t>10K</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>0.564563</v>
+        <v>0.3695697</v>
       </c>
       <c r="G141" t="n">
-        <v>65.74578</v>
+        <v>62.66634</v>
       </c>
       <c r="H141" t="n">
-        <v>0.5598704</v>
+        <v>0.367473</v>
       </c>
       <c r="I141" t="n">
-        <v>65.99948000000001</v>
+        <v>62.90122</v>
       </c>
       <c r="J141" t="n">
-        <v>0.5605855</v>
+        <v>0.3676717</v>
       </c>
       <c r="K141" t="n">
-        <v>65.96051</v>
+        <v>62.87881</v>
       </c>
       <c r="L141" t="n">
-        <v>0.5634735</v>
+        <v>0.3690019</v>
       </c>
       <c r="M141" t="n">
-        <v>65.80426</v>
+        <v>62.72961</v>
       </c>
       <c r="N141" t="n">
-        <v>0.5627483</v>
+        <v>0.3688009</v>
       </c>
       <c r="O141" t="n">
-        <v>65.84332000000001</v>
+        <v>62.75207</v>
       </c>
       <c r="P141" t="n">
-        <v>0.5634735</v>
+        <v>0.3690019</v>
       </c>
       <c r="Q141" t="n">
-        <v>65.80426</v>
+        <v>62.72961</v>
       </c>
       <c r="R141" t="n">
-        <v>0.5627483</v>
+        <v>0.3688009</v>
       </c>
       <c r="S141" t="n">
-        <v>65.84332000000001</v>
+        <v>62.75207</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>250KVA</t>
+          <t>225KVA</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -15955,61 +16011,61 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>12K</t>
+          <t>10K</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>12K</t>
+          <t>10K</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>0.564563</v>
+        <v>0.3695697</v>
       </c>
       <c r="G142" t="n">
-        <v>65.74578</v>
+        <v>62.66634</v>
       </c>
       <c r="H142" t="n">
-        <v>0.5598704</v>
+        <v>0.367473</v>
       </c>
       <c r="I142" t="n">
-        <v>65.99948000000001</v>
+        <v>62.90122</v>
       </c>
       <c r="J142" t="n">
-        <v>0.5605855</v>
+        <v>0.3676717</v>
       </c>
       <c r="K142" t="n">
-        <v>65.96051</v>
+        <v>62.87881</v>
       </c>
       <c r="L142" t="n">
-        <v>0.5634735</v>
+        <v>0.3690019</v>
       </c>
       <c r="M142" t="n">
-        <v>65.80426</v>
+        <v>62.72961</v>
       </c>
       <c r="N142" t="n">
-        <v>0.5627483</v>
+        <v>0.3688009</v>
       </c>
       <c r="O142" t="n">
-        <v>65.84332000000001</v>
+        <v>62.75207</v>
       </c>
       <c r="P142" t="n">
-        <v>0.5634735</v>
+        <v>0.3690019</v>
       </c>
       <c r="Q142" t="n">
-        <v>65.80426</v>
+        <v>62.72961</v>
       </c>
       <c r="R142" t="n">
-        <v>0.5627483</v>
+        <v>0.3688009</v>
       </c>
       <c r="S142" t="n">
-        <v>65.84332000000001</v>
+        <v>62.75207</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>250KVA</t>
+          <t>225KVA</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -16024,61 +16080,61 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>12K</t>
+          <t>10K</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>12K</t>
+          <t>10K</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>0.564563</v>
+        <v>0.3695697</v>
       </c>
       <c r="G143" t="n">
-        <v>65.74578</v>
+        <v>62.66634</v>
       </c>
       <c r="H143" t="n">
-        <v>0.5598704</v>
+        <v>0.367473</v>
       </c>
       <c r="I143" t="n">
-        <v>65.99948000000001</v>
+        <v>62.90122</v>
       </c>
       <c r="J143" t="n">
-        <v>0.5605855</v>
+        <v>0.3676717</v>
       </c>
       <c r="K143" t="n">
-        <v>65.96051</v>
+        <v>62.87881</v>
       </c>
       <c r="L143" t="n">
-        <v>0.5634735</v>
+        <v>0.3690019</v>
       </c>
       <c r="M143" t="n">
-        <v>65.80426</v>
+        <v>62.72961</v>
       </c>
       <c r="N143" t="n">
-        <v>0.5627483</v>
+        <v>0.3688009</v>
       </c>
       <c r="O143" t="n">
-        <v>65.84332000000001</v>
+        <v>62.75207</v>
       </c>
       <c r="P143" t="n">
-        <v>0.5634735</v>
+        <v>0.3690019</v>
       </c>
       <c r="Q143" t="n">
-        <v>65.80426</v>
+        <v>62.72961</v>
       </c>
       <c r="R143" t="n">
-        <v>0.5627483</v>
+        <v>0.3688009</v>
       </c>
       <c r="S143" t="n">
-        <v>65.84332000000001</v>
+        <v>62.75207</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>250KVA</t>
+          <t>225KVA</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -16093,135 +16149,135 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>12K</t>
+          <t>10K</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>12K</t>
+          <t>10K</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>0.564563</v>
+        <v>0.3695697</v>
       </c>
       <c r="G144" t="n">
-        <v>65.74578</v>
+        <v>62.66634</v>
       </c>
       <c r="H144" t="n">
-        <v>0.5598704</v>
+        <v>0.367473</v>
       </c>
       <c r="I144" t="n">
-        <v>65.99948000000001</v>
+        <v>62.90122</v>
       </c>
       <c r="J144" t="n">
-        <v>0.5605855</v>
+        <v>0.3676717</v>
       </c>
       <c r="K144" t="n">
-        <v>65.96051</v>
+        <v>62.87881</v>
       </c>
       <c r="L144" t="n">
-        <v>0.5634735</v>
+        <v>0.3690019</v>
       </c>
       <c r="M144" t="n">
-        <v>65.80426</v>
+        <v>62.72961</v>
       </c>
       <c r="N144" t="n">
-        <v>0.5627483</v>
+        <v>0.3688009</v>
       </c>
       <c r="O144" t="n">
-        <v>65.84332000000001</v>
+        <v>62.75207</v>
       </c>
       <c r="P144" t="n">
-        <v>0.5634735</v>
+        <v>0.3690019</v>
       </c>
       <c r="Q144" t="n">
-        <v>65.80426</v>
+        <v>62.72961</v>
       </c>
       <c r="R144" t="n">
-        <v>0.5627483</v>
+        <v>0.3688009</v>
       </c>
       <c r="S144" t="n">
-        <v>65.84332000000001</v>
+        <v>62.75207</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>300KVA</t>
+          <t>225KVA</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Curto ABC Terra</t>
+          <t>Funcionamento Normal</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>BT Consumidor</t>
+          <t>Funcionamento Normal</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>15K</t>
+          <t>10K</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>15K</t>
+          <t>10K</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>0.847456</v>
+        <v>0.3695697</v>
       </c>
       <c r="G145" t="n">
-        <v>70.88735</v>
+        <v>62.66634</v>
       </c>
       <c r="H145" t="n">
-        <v>0.8377508</v>
+        <v>0.367473</v>
       </c>
       <c r="I145" t="n">
-        <v>71.17295</v>
+        <v>62.90122</v>
       </c>
       <c r="J145" t="n">
-        <v>0.8401174</v>
+        <v>0.3676717</v>
       </c>
       <c r="K145" t="n">
-        <v>71.1027</v>
+        <v>62.87881</v>
       </c>
       <c r="L145" t="n">
-        <v>0.8458026</v>
+        <v>0.3690019</v>
       </c>
       <c r="M145" t="n">
-        <v>70.93554</v>
+        <v>62.72961</v>
       </c>
       <c r="N145" t="n">
-        <v>0.8433979</v>
+        <v>0.3688009</v>
       </c>
       <c r="O145" t="n">
-        <v>71.00596</v>
+        <v>62.75207</v>
       </c>
       <c r="P145" t="n">
-        <v>0.8458026</v>
+        <v>0.3690019</v>
       </c>
       <c r="Q145" t="n">
-        <v>70.93554</v>
+        <v>62.72961</v>
       </c>
       <c r="R145" t="n">
-        <v>0.8433979</v>
+        <v>0.3688009</v>
       </c>
       <c r="S145" t="n">
-        <v>71.00596</v>
+        <v>62.75207</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>300KVA</t>
+          <t>250KVA</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Curto ABC</t>
+          <t>Curto ABC Terra</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -16231,66 +16287,66 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>15K</t>
+          <t>12K</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>15K</t>
+          <t>12K</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>0.847456</v>
+        <v>0.564563</v>
       </c>
       <c r="G146" t="n">
-        <v>70.88735</v>
+        <v>65.74578</v>
       </c>
       <c r="H146" t="n">
-        <v>0.8377508</v>
+        <v>0.5598704</v>
       </c>
       <c r="I146" t="n">
-        <v>71.17295</v>
+        <v>65.99948000000001</v>
       </c>
       <c r="J146" t="n">
-        <v>0.8401174</v>
+        <v>0.5605855</v>
       </c>
       <c r="K146" t="n">
-        <v>71.1027</v>
+        <v>65.96051</v>
       </c>
       <c r="L146" t="n">
-        <v>0.8458026</v>
+        <v>0.5634735</v>
       </c>
       <c r="M146" t="n">
-        <v>70.93554</v>
+        <v>65.80426</v>
       </c>
       <c r="N146" t="n">
-        <v>0.8433979</v>
+        <v>0.5627483</v>
       </c>
       <c r="O146" t="n">
-        <v>71.00596</v>
+        <v>65.84332000000001</v>
       </c>
       <c r="P146" t="n">
-        <v>0.8458026</v>
+        <v>0.5634735</v>
       </c>
       <c r="Q146" t="n">
-        <v>70.93554</v>
+        <v>65.80426</v>
       </c>
       <c r="R146" t="n">
-        <v>0.8433979</v>
+        <v>0.5627483</v>
       </c>
       <c r="S146" t="n">
-        <v>71.00596</v>
+        <v>65.84332000000001</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>300KVA</t>
+          <t>250KVA</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Curto AB Terra</t>
+          <t>Curto ABC</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -16300,66 +16356,66 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>15K</t>
+          <t>12K</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>15K</t>
+          <t>12K</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>0.847456</v>
+        <v>0.564563</v>
       </c>
       <c r="G147" t="n">
-        <v>70.88735</v>
+        <v>65.74578</v>
       </c>
       <c r="H147" t="n">
-        <v>0.8377508</v>
+        <v>0.5598704</v>
       </c>
       <c r="I147" t="n">
-        <v>71.17295</v>
+        <v>65.99948000000001</v>
       </c>
       <c r="J147" t="n">
-        <v>0.8401174</v>
+        <v>0.5605855</v>
       </c>
       <c r="K147" t="n">
-        <v>71.1027</v>
+        <v>65.96051</v>
       </c>
       <c r="L147" t="n">
-        <v>0.8458026</v>
+        <v>0.5634735</v>
       </c>
       <c r="M147" t="n">
-        <v>70.93554</v>
+        <v>65.80426</v>
       </c>
       <c r="N147" t="n">
-        <v>0.8433979</v>
+        <v>0.5627483</v>
       </c>
       <c r="O147" t="n">
-        <v>71.00596</v>
+        <v>65.84332000000001</v>
       </c>
       <c r="P147" t="n">
-        <v>0.8458026</v>
+        <v>0.5634735</v>
       </c>
       <c r="Q147" t="n">
-        <v>70.93554</v>
+        <v>65.80426</v>
       </c>
       <c r="R147" t="n">
-        <v>0.8433979</v>
+        <v>0.5627483</v>
       </c>
       <c r="S147" t="n">
-        <v>71.00596</v>
+        <v>65.84332000000001</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>300KVA</t>
+          <t>250KVA</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Curto AB</t>
+          <t>Curto AB Terra</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -16369,66 +16425,66 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>15K</t>
+          <t>12K</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>15K</t>
+          <t>12K</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>0.847456</v>
+        <v>0.564563</v>
       </c>
       <c r="G148" t="n">
-        <v>70.88735</v>
+        <v>65.74578</v>
       </c>
       <c r="H148" t="n">
-        <v>0.8377508</v>
+        <v>0.5598704</v>
       </c>
       <c r="I148" t="n">
-        <v>71.17295</v>
+        <v>65.99948000000001</v>
       </c>
       <c r="J148" t="n">
-        <v>0.8401174</v>
+        <v>0.5605855</v>
       </c>
       <c r="K148" t="n">
-        <v>71.1027</v>
+        <v>65.96051</v>
       </c>
       <c r="L148" t="n">
-        <v>0.8458026</v>
+        <v>0.5634735</v>
       </c>
       <c r="M148" t="n">
-        <v>70.93554</v>
+        <v>65.80426</v>
       </c>
       <c r="N148" t="n">
-        <v>0.8433979</v>
+        <v>0.5627483</v>
       </c>
       <c r="O148" t="n">
-        <v>71.00596</v>
+        <v>65.84332000000001</v>
       </c>
       <c r="P148" t="n">
-        <v>0.8458026</v>
+        <v>0.5634735</v>
       </c>
       <c r="Q148" t="n">
-        <v>70.93554</v>
+        <v>65.80426</v>
       </c>
       <c r="R148" t="n">
-        <v>0.8433979</v>
+        <v>0.5627483</v>
       </c>
       <c r="S148" t="n">
-        <v>71.00596</v>
+        <v>65.84332000000001</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>300KVA</t>
+          <t>250KVA</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Curto AC Terra</t>
+          <t>Curto AB</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -16438,66 +16494,66 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>15K</t>
+          <t>12K</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>15K</t>
+          <t>12K</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>0.847456</v>
+        <v>0.564563</v>
       </c>
       <c r="G149" t="n">
-        <v>70.88735</v>
+        <v>65.74578</v>
       </c>
       <c r="H149" t="n">
-        <v>0.8377508</v>
+        <v>0.5598704</v>
       </c>
       <c r="I149" t="n">
-        <v>71.17295</v>
+        <v>65.99948000000001</v>
       </c>
       <c r="J149" t="n">
-        <v>0.8401174</v>
+        <v>0.5605855</v>
       </c>
       <c r="K149" t="n">
-        <v>71.1027</v>
+        <v>65.96051</v>
       </c>
       <c r="L149" t="n">
-        <v>0.8458026</v>
+        <v>0.5634735</v>
       </c>
       <c r="M149" t="n">
-        <v>70.93554</v>
+        <v>65.80426</v>
       </c>
       <c r="N149" t="n">
-        <v>0.8433979</v>
+        <v>0.5627483</v>
       </c>
       <c r="O149" t="n">
-        <v>71.00596</v>
+        <v>65.84332000000001</v>
       </c>
       <c r="P149" t="n">
-        <v>0.8458026</v>
+        <v>0.5634735</v>
       </c>
       <c r="Q149" t="n">
-        <v>70.93554</v>
+        <v>65.80426</v>
       </c>
       <c r="R149" t="n">
-        <v>0.8433979</v>
+        <v>0.5627483</v>
       </c>
       <c r="S149" t="n">
-        <v>71.00596</v>
+        <v>65.84332000000001</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>300KVA</t>
+          <t>250KVA</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Curto AC</t>
+          <t>Curto AC Terra</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -16507,66 +16563,66 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>15K</t>
+          <t>12K</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>15K</t>
+          <t>12K</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>0.847456</v>
+        <v>0.564563</v>
       </c>
       <c r="G150" t="n">
-        <v>70.88735</v>
+        <v>65.74578</v>
       </c>
       <c r="H150" t="n">
-        <v>0.8377508</v>
+        <v>0.5598704</v>
       </c>
       <c r="I150" t="n">
-        <v>71.17295</v>
+        <v>65.99948000000001</v>
       </c>
       <c r="J150" t="n">
-        <v>0.8401174</v>
+        <v>0.5605855</v>
       </c>
       <c r="K150" t="n">
-        <v>71.1027</v>
+        <v>65.96051</v>
       </c>
       <c r="L150" t="n">
-        <v>0.8458026</v>
+        <v>0.5634735</v>
       </c>
       <c r="M150" t="n">
-        <v>70.93554</v>
+        <v>65.80426</v>
       </c>
       <c r="N150" t="n">
-        <v>0.8433979</v>
+        <v>0.5627483</v>
       </c>
       <c r="O150" t="n">
-        <v>71.00596</v>
+        <v>65.84332000000001</v>
       </c>
       <c r="P150" t="n">
-        <v>0.8458026</v>
+        <v>0.5634735</v>
       </c>
       <c r="Q150" t="n">
-        <v>70.93554</v>
+        <v>65.80426</v>
       </c>
       <c r="R150" t="n">
-        <v>0.8433979</v>
+        <v>0.5627483</v>
       </c>
       <c r="S150" t="n">
-        <v>71.00596</v>
+        <v>65.84332000000001</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>300KVA</t>
+          <t>250KVA</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Curto BC Terra</t>
+          <t>Curto AC</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -16576,66 +16632,66 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>15K</t>
+          <t>12K</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>15K</t>
+          <t>12K</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>0.847456</v>
+        <v>0.564563</v>
       </c>
       <c r="G151" t="n">
-        <v>70.88735</v>
+        <v>65.74578</v>
       </c>
       <c r="H151" t="n">
-        <v>0.8377508</v>
+        <v>0.5598704</v>
       </c>
       <c r="I151" t="n">
-        <v>71.17295</v>
+        <v>65.99948000000001</v>
       </c>
       <c r="J151" t="n">
-        <v>0.8401174</v>
+        <v>0.5605855</v>
       </c>
       <c r="K151" t="n">
-        <v>71.1027</v>
+        <v>65.96051</v>
       </c>
       <c r="L151" t="n">
-        <v>0.8458026</v>
+        <v>0.5634735</v>
       </c>
       <c r="M151" t="n">
-        <v>70.93554</v>
+        <v>65.80426</v>
       </c>
       <c r="N151" t="n">
-        <v>0.8433979</v>
+        <v>0.5627483</v>
       </c>
       <c r="O151" t="n">
-        <v>71.00596</v>
+        <v>65.84332000000001</v>
       </c>
       <c r="P151" t="n">
-        <v>0.8458026</v>
+        <v>0.5634735</v>
       </c>
       <c r="Q151" t="n">
-        <v>70.93554</v>
+        <v>65.80426</v>
       </c>
       <c r="R151" t="n">
-        <v>0.8433979</v>
+        <v>0.5627483</v>
       </c>
       <c r="S151" t="n">
-        <v>71.00596</v>
+        <v>65.84332000000001</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>300KVA</t>
+          <t>250KVA</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Curto BC</t>
+          <t>Curto BC Terra</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -16645,66 +16701,66 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>15K</t>
+          <t>12K</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>15K</t>
+          <t>12K</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>0.847456</v>
+        <v>0.564563</v>
       </c>
       <c r="G152" t="n">
-        <v>70.88735</v>
+        <v>65.74578</v>
       </c>
       <c r="H152" t="n">
-        <v>0.8377508</v>
+        <v>0.5598704</v>
       </c>
       <c r="I152" t="n">
-        <v>71.17295</v>
+        <v>65.99948000000001</v>
       </c>
       <c r="J152" t="n">
-        <v>0.8401174</v>
+        <v>0.5605855</v>
       </c>
       <c r="K152" t="n">
-        <v>71.1027</v>
+        <v>65.96051</v>
       </c>
       <c r="L152" t="n">
-        <v>0.8458026</v>
+        <v>0.5634735</v>
       </c>
       <c r="M152" t="n">
-        <v>70.93554</v>
+        <v>65.80426</v>
       </c>
       <c r="N152" t="n">
-        <v>0.8433979</v>
+        <v>0.5627483</v>
       </c>
       <c r="O152" t="n">
-        <v>71.00596</v>
+        <v>65.84332000000001</v>
       </c>
       <c r="P152" t="n">
-        <v>0.8458026</v>
+        <v>0.5634735</v>
       </c>
       <c r="Q152" t="n">
-        <v>70.93554</v>
+        <v>65.80426</v>
       </c>
       <c r="R152" t="n">
-        <v>0.8433979</v>
+        <v>0.5627483</v>
       </c>
       <c r="S152" t="n">
-        <v>71.00596</v>
+        <v>65.84332000000001</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>300KVA</t>
+          <t>250KVA</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Curto A Terra</t>
+          <t>Curto BC</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -16714,66 +16770,66 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>15K</t>
+          <t>12K</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>15K</t>
+          <t>12K</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>0.847456</v>
+        <v>0.564563</v>
       </c>
       <c r="G153" t="n">
-        <v>70.88735</v>
+        <v>65.74578</v>
       </c>
       <c r="H153" t="n">
-        <v>0.8377508</v>
+        <v>0.5598704</v>
       </c>
       <c r="I153" t="n">
-        <v>71.17295</v>
+        <v>65.99948000000001</v>
       </c>
       <c r="J153" t="n">
-        <v>0.8401174</v>
+        <v>0.5605855</v>
       </c>
       <c r="K153" t="n">
-        <v>71.1027</v>
+        <v>65.96051</v>
       </c>
       <c r="L153" t="n">
-        <v>0.8458026</v>
+        <v>0.5634735</v>
       </c>
       <c r="M153" t="n">
-        <v>70.93554</v>
+        <v>65.80426</v>
       </c>
       <c r="N153" t="n">
-        <v>0.8433979</v>
+        <v>0.5627483</v>
       </c>
       <c r="O153" t="n">
-        <v>71.00596</v>
+        <v>65.84332000000001</v>
       </c>
       <c r="P153" t="n">
-        <v>0.8458026</v>
+        <v>0.5634735</v>
       </c>
       <c r="Q153" t="n">
-        <v>70.93554</v>
+        <v>65.80426</v>
       </c>
       <c r="R153" t="n">
-        <v>0.8433979</v>
+        <v>0.5627483</v>
       </c>
       <c r="S153" t="n">
-        <v>71.00596</v>
+        <v>65.84332000000001</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>300KVA</t>
+          <t>250KVA</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Curto B Terra</t>
+          <t>Curto A Terra</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -16783,123 +16839,1089 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>15K</t>
+          <t>12K</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>15K</t>
+          <t>12K</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>0.847456</v>
+        <v>0.564563</v>
       </c>
       <c r="G154" t="n">
-        <v>70.88735</v>
+        <v>65.74578</v>
       </c>
       <c r="H154" t="n">
-        <v>0.8377508</v>
+        <v>0.5598704</v>
       </c>
       <c r="I154" t="n">
-        <v>71.17295</v>
+        <v>65.99948000000001</v>
       </c>
       <c r="J154" t="n">
-        <v>0.8401174</v>
+        <v>0.5605855</v>
       </c>
       <c r="K154" t="n">
-        <v>71.1027</v>
+        <v>65.96051</v>
       </c>
       <c r="L154" t="n">
-        <v>0.8458026</v>
+        <v>0.5634735</v>
       </c>
       <c r="M154" t="n">
-        <v>70.93554</v>
+        <v>65.80426</v>
       </c>
       <c r="N154" t="n">
-        <v>0.8433979</v>
+        <v>0.5627483</v>
       </c>
       <c r="O154" t="n">
-        <v>71.00596</v>
+        <v>65.84332000000001</v>
       </c>
       <c r="P154" t="n">
-        <v>0.8458026</v>
+        <v>0.5634735</v>
       </c>
       <c r="Q154" t="n">
-        <v>70.93554</v>
+        <v>65.80426</v>
       </c>
       <c r="R154" t="n">
-        <v>0.8433979</v>
+        <v>0.5627483</v>
       </c>
       <c r="S154" t="n">
-        <v>71.00596</v>
+        <v>65.84332000000001</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
+          <t>250KVA</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Curto B Terra</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>12K</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>12K</t>
+        </is>
+      </c>
+      <c r="F155" t="n">
+        <v>0.564563</v>
+      </c>
+      <c r="G155" t="n">
+        <v>65.74578</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0.5598704</v>
+      </c>
+      <c r="I155" t="n">
+        <v>65.99948000000001</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0.5605855</v>
+      </c>
+      <c r="K155" t="n">
+        <v>65.96051</v>
+      </c>
+      <c r="L155" t="n">
+        <v>0.5634735</v>
+      </c>
+      <c r="M155" t="n">
+        <v>65.80426</v>
+      </c>
+      <c r="N155" t="n">
+        <v>0.5627483</v>
+      </c>
+      <c r="O155" t="n">
+        <v>65.84332000000001</v>
+      </c>
+      <c r="P155" t="n">
+        <v>0.5634735</v>
+      </c>
+      <c r="Q155" t="n">
+        <v>65.80426</v>
+      </c>
+      <c r="R155" t="n">
+        <v>0.5627483</v>
+      </c>
+      <c r="S155" t="n">
+        <v>65.84332000000001</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>250KVA</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Curto C Terra</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>12K</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>12K</t>
+        </is>
+      </c>
+      <c r="F156" t="n">
+        <v>0.564563</v>
+      </c>
+      <c r="G156" t="n">
+        <v>65.74578</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0.5598704</v>
+      </c>
+      <c r="I156" t="n">
+        <v>65.99948000000001</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0.5605855</v>
+      </c>
+      <c r="K156" t="n">
+        <v>65.96051</v>
+      </c>
+      <c r="L156" t="n">
+        <v>0.5634735</v>
+      </c>
+      <c r="M156" t="n">
+        <v>65.80426</v>
+      </c>
+      <c r="N156" t="n">
+        <v>0.5627483</v>
+      </c>
+      <c r="O156" t="n">
+        <v>65.84332000000001</v>
+      </c>
+      <c r="P156" t="n">
+        <v>0.5634735</v>
+      </c>
+      <c r="Q156" t="n">
+        <v>65.80426</v>
+      </c>
+      <c r="R156" t="n">
+        <v>0.5627483</v>
+      </c>
+      <c r="S156" t="n">
+        <v>65.84332000000001</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>250KVA</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Funcionamento Normal</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Funcionamento Normal</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>12K</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>12K</t>
+        </is>
+      </c>
+      <c r="F157" t="n">
+        <v>0.564563</v>
+      </c>
+      <c r="G157" t="n">
+        <v>65.74578</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0.5598704</v>
+      </c>
+      <c r="I157" t="n">
+        <v>65.99948000000001</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0.5605855</v>
+      </c>
+      <c r="K157" t="n">
+        <v>65.96051</v>
+      </c>
+      <c r="L157" t="n">
+        <v>0.5634735</v>
+      </c>
+      <c r="M157" t="n">
+        <v>65.80426</v>
+      </c>
+      <c r="N157" t="n">
+        <v>0.5627483</v>
+      </c>
+      <c r="O157" t="n">
+        <v>65.84332000000001</v>
+      </c>
+      <c r="P157" t="n">
+        <v>0.5634735</v>
+      </c>
+      <c r="Q157" t="n">
+        <v>65.80426</v>
+      </c>
+      <c r="R157" t="n">
+        <v>0.5627483</v>
+      </c>
+      <c r="S157" t="n">
+        <v>65.84332000000001</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
           <t>300KVA</t>
         </is>
       </c>
-      <c r="B155" t="inlineStr">
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Curto ABC Terra</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>15K</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>15K</t>
+        </is>
+      </c>
+      <c r="F158" t="n">
+        <v>0.847456</v>
+      </c>
+      <c r="G158" t="n">
+        <v>70.88735</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0.8377508</v>
+      </c>
+      <c r="I158" t="n">
+        <v>71.17295</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0.8401174</v>
+      </c>
+      <c r="K158" t="n">
+        <v>71.1027</v>
+      </c>
+      <c r="L158" t="n">
+        <v>0.8458026</v>
+      </c>
+      <c r="M158" t="n">
+        <v>70.93554</v>
+      </c>
+      <c r="N158" t="n">
+        <v>0.8433979</v>
+      </c>
+      <c r="O158" t="n">
+        <v>71.00596</v>
+      </c>
+      <c r="P158" t="n">
+        <v>0.8458026</v>
+      </c>
+      <c r="Q158" t="n">
+        <v>70.93554</v>
+      </c>
+      <c r="R158" t="n">
+        <v>0.8433979</v>
+      </c>
+      <c r="S158" t="n">
+        <v>71.00596</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>300KVA</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Curto ABC</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>15K</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>15K</t>
+        </is>
+      </c>
+      <c r="F159" t="n">
+        <v>0.847456</v>
+      </c>
+      <c r="G159" t="n">
+        <v>70.88735</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0.8377508</v>
+      </c>
+      <c r="I159" t="n">
+        <v>71.17295</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0.8401174</v>
+      </c>
+      <c r="K159" t="n">
+        <v>71.1027</v>
+      </c>
+      <c r="L159" t="n">
+        <v>0.8458026</v>
+      </c>
+      <c r="M159" t="n">
+        <v>70.93554</v>
+      </c>
+      <c r="N159" t="n">
+        <v>0.8433979</v>
+      </c>
+      <c r="O159" t="n">
+        <v>71.00596</v>
+      </c>
+      <c r="P159" t="n">
+        <v>0.8458026</v>
+      </c>
+      <c r="Q159" t="n">
+        <v>70.93554</v>
+      </c>
+      <c r="R159" t="n">
+        <v>0.8433979</v>
+      </c>
+      <c r="S159" t="n">
+        <v>71.00596</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>300KVA</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Curto AB Terra</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>15K</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>15K</t>
+        </is>
+      </c>
+      <c r="F160" t="n">
+        <v>0.847456</v>
+      </c>
+      <c r="G160" t="n">
+        <v>70.88735</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0.8377508</v>
+      </c>
+      <c r="I160" t="n">
+        <v>71.17295</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0.8401174</v>
+      </c>
+      <c r="K160" t="n">
+        <v>71.1027</v>
+      </c>
+      <c r="L160" t="n">
+        <v>0.8458026</v>
+      </c>
+      <c r="M160" t="n">
+        <v>70.93554</v>
+      </c>
+      <c r="N160" t="n">
+        <v>0.8433979</v>
+      </c>
+      <c r="O160" t="n">
+        <v>71.00596</v>
+      </c>
+      <c r="P160" t="n">
+        <v>0.8458026</v>
+      </c>
+      <c r="Q160" t="n">
+        <v>70.93554</v>
+      </c>
+      <c r="R160" t="n">
+        <v>0.8433979</v>
+      </c>
+      <c r="S160" t="n">
+        <v>71.00596</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>300KVA</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Curto AB</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>15K</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>15K</t>
+        </is>
+      </c>
+      <c r="F161" t="n">
+        <v>0.847456</v>
+      </c>
+      <c r="G161" t="n">
+        <v>70.88735</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0.8377508</v>
+      </c>
+      <c r="I161" t="n">
+        <v>71.17295</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0.8401174</v>
+      </c>
+      <c r="K161" t="n">
+        <v>71.1027</v>
+      </c>
+      <c r="L161" t="n">
+        <v>0.8458026</v>
+      </c>
+      <c r="M161" t="n">
+        <v>70.93554</v>
+      </c>
+      <c r="N161" t="n">
+        <v>0.8433979</v>
+      </c>
+      <c r="O161" t="n">
+        <v>71.00596</v>
+      </c>
+      <c r="P161" t="n">
+        <v>0.8458026</v>
+      </c>
+      <c r="Q161" t="n">
+        <v>70.93554</v>
+      </c>
+      <c r="R161" t="n">
+        <v>0.8433979</v>
+      </c>
+      <c r="S161" t="n">
+        <v>71.00596</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>300KVA</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Curto AC Terra</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>15K</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>15K</t>
+        </is>
+      </c>
+      <c r="F162" t="n">
+        <v>0.847456</v>
+      </c>
+      <c r="G162" t="n">
+        <v>70.88735</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0.8377508</v>
+      </c>
+      <c r="I162" t="n">
+        <v>71.17295</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0.8401174</v>
+      </c>
+      <c r="K162" t="n">
+        <v>71.1027</v>
+      </c>
+      <c r="L162" t="n">
+        <v>0.8458026</v>
+      </c>
+      <c r="M162" t="n">
+        <v>70.93554</v>
+      </c>
+      <c r="N162" t="n">
+        <v>0.8433979</v>
+      </c>
+      <c r="O162" t="n">
+        <v>71.00596</v>
+      </c>
+      <c r="P162" t="n">
+        <v>0.8458026</v>
+      </c>
+      <c r="Q162" t="n">
+        <v>70.93554</v>
+      </c>
+      <c r="R162" t="n">
+        <v>0.8433979</v>
+      </c>
+      <c r="S162" t="n">
+        <v>71.00596</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>300KVA</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Curto AC</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>15K</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>15K</t>
+        </is>
+      </c>
+      <c r="F163" t="n">
+        <v>0.847456</v>
+      </c>
+      <c r="G163" t="n">
+        <v>70.88735</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0.8377508</v>
+      </c>
+      <c r="I163" t="n">
+        <v>71.17295</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0.8401174</v>
+      </c>
+      <c r="K163" t="n">
+        <v>71.1027</v>
+      </c>
+      <c r="L163" t="n">
+        <v>0.8458026</v>
+      </c>
+      <c r="M163" t="n">
+        <v>70.93554</v>
+      </c>
+      <c r="N163" t="n">
+        <v>0.8433979</v>
+      </c>
+      <c r="O163" t="n">
+        <v>71.00596</v>
+      </c>
+      <c r="P163" t="n">
+        <v>0.8458026</v>
+      </c>
+      <c r="Q163" t="n">
+        <v>70.93554</v>
+      </c>
+      <c r="R163" t="n">
+        <v>0.8433979</v>
+      </c>
+      <c r="S163" t="n">
+        <v>71.00596</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>300KVA</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Curto BC Terra</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>15K</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>15K</t>
+        </is>
+      </c>
+      <c r="F164" t="n">
+        <v>0.847456</v>
+      </c>
+      <c r="G164" t="n">
+        <v>70.88735</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0.8377508</v>
+      </c>
+      <c r="I164" t="n">
+        <v>71.17295</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0.8401174</v>
+      </c>
+      <c r="K164" t="n">
+        <v>71.1027</v>
+      </c>
+      <c r="L164" t="n">
+        <v>0.8458026</v>
+      </c>
+      <c r="M164" t="n">
+        <v>70.93554</v>
+      </c>
+      <c r="N164" t="n">
+        <v>0.8433979</v>
+      </c>
+      <c r="O164" t="n">
+        <v>71.00596</v>
+      </c>
+      <c r="P164" t="n">
+        <v>0.8458026</v>
+      </c>
+      <c r="Q164" t="n">
+        <v>70.93554</v>
+      </c>
+      <c r="R164" t="n">
+        <v>0.8433979</v>
+      </c>
+      <c r="S164" t="n">
+        <v>71.00596</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>300KVA</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Curto BC</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>15K</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>15K</t>
+        </is>
+      </c>
+      <c r="F165" t="n">
+        <v>0.847456</v>
+      </c>
+      <c r="G165" t="n">
+        <v>70.88735</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0.8377508</v>
+      </c>
+      <c r="I165" t="n">
+        <v>71.17295</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0.8401174</v>
+      </c>
+      <c r="K165" t="n">
+        <v>71.1027</v>
+      </c>
+      <c r="L165" t="n">
+        <v>0.8458026</v>
+      </c>
+      <c r="M165" t="n">
+        <v>70.93554</v>
+      </c>
+      <c r="N165" t="n">
+        <v>0.8433979</v>
+      </c>
+      <c r="O165" t="n">
+        <v>71.00596</v>
+      </c>
+      <c r="P165" t="n">
+        <v>0.8458026</v>
+      </c>
+      <c r="Q165" t="n">
+        <v>70.93554</v>
+      </c>
+      <c r="R165" t="n">
+        <v>0.8433979</v>
+      </c>
+      <c r="S165" t="n">
+        <v>71.00596</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>300KVA</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Curto A Terra</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>15K</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>15K</t>
+        </is>
+      </c>
+      <c r="F166" t="n">
+        <v>0.847456</v>
+      </c>
+      <c r="G166" t="n">
+        <v>70.88735</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0.8377508</v>
+      </c>
+      <c r="I166" t="n">
+        <v>71.17295</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0.8401174</v>
+      </c>
+      <c r="K166" t="n">
+        <v>71.1027</v>
+      </c>
+      <c r="L166" t="n">
+        <v>0.8458026</v>
+      </c>
+      <c r="M166" t="n">
+        <v>70.93554</v>
+      </c>
+      <c r="N166" t="n">
+        <v>0.8433979</v>
+      </c>
+      <c r="O166" t="n">
+        <v>71.00596</v>
+      </c>
+      <c r="P166" t="n">
+        <v>0.8458026</v>
+      </c>
+      <c r="Q166" t="n">
+        <v>70.93554</v>
+      </c>
+      <c r="R166" t="n">
+        <v>0.8433979</v>
+      </c>
+      <c r="S166" t="n">
+        <v>71.00596</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>300KVA</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Curto B Terra</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>BT Consumidor</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>15K</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>15K</t>
+        </is>
+      </c>
+      <c r="F167" t="n">
+        <v>0.847456</v>
+      </c>
+      <c r="G167" t="n">
+        <v>70.88735</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0.8377508</v>
+      </c>
+      <c r="I167" t="n">
+        <v>71.17295</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0.8401174</v>
+      </c>
+      <c r="K167" t="n">
+        <v>71.1027</v>
+      </c>
+      <c r="L167" t="n">
+        <v>0.8458026</v>
+      </c>
+      <c r="M167" t="n">
+        <v>70.93554</v>
+      </c>
+      <c r="N167" t="n">
+        <v>0.8433979</v>
+      </c>
+      <c r="O167" t="n">
+        <v>71.00596</v>
+      </c>
+      <c r="P167" t="n">
+        <v>0.8458026</v>
+      </c>
+      <c r="Q167" t="n">
+        <v>70.93554</v>
+      </c>
+      <c r="R167" t="n">
+        <v>0.8433979</v>
+      </c>
+      <c r="S167" t="n">
+        <v>71.00596</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>300KVA</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
         <is>
           <t>Curto C Terra</t>
         </is>
       </c>
-      <c r="C155" t="inlineStr">
+      <c r="C168" t="inlineStr">
         <is>
           <t>BT Consumidor</t>
         </is>
       </c>
-      <c r="D155" t="inlineStr">
+      <c r="D168" t="inlineStr">
         <is>
           <t>15K</t>
         </is>
       </c>
-      <c r="E155" t="inlineStr">
+      <c r="E168" t="inlineStr">
         <is>
           <t>15K</t>
         </is>
       </c>
-      <c r="F155" t="n">
+      <c r="F168" t="n">
         <v>0.847456</v>
       </c>
-      <c r="G155" t="n">
+      <c r="G168" t="n">
         <v>70.88735</v>
       </c>
-      <c r="H155" t="n">
+      <c r="H168" t="n">
         <v>0.8377508</v>
       </c>
-      <c r="I155" t="n">
+      <c r="I168" t="n">
         <v>71.17295</v>
       </c>
-      <c r="J155" t="n">
+      <c r="J168" t="n">
         <v>0.8401174</v>
       </c>
-      <c r="K155" t="n">
+      <c r="K168" t="n">
         <v>71.1027</v>
       </c>
-      <c r="L155" t="n">
+      <c r="L168" t="n">
         <v>0.8458026</v>
       </c>
-      <c r="M155" t="n">
+      <c r="M168" t="n">
         <v>70.93554</v>
       </c>
-      <c r="N155" t="n">
+      <c r="N168" t="n">
         <v>0.8433979</v>
       </c>
-      <c r="O155" t="n">
+      <c r="O168" t="n">
         <v>71.00596</v>
       </c>
-      <c r="P155" t="n">
+      <c r="P168" t="n">
         <v>0.8458026</v>
       </c>
-      <c r="Q155" t="n">
+      <c r="Q168" t="n">
         <v>70.93554</v>
       </c>
-      <c r="R155" t="n">
+      <c r="R168" t="n">
         <v>0.8433979</v>
       </c>
-      <c r="S155" t="n">
+      <c r="S168" t="n">
+        <v>71.00596</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>300KVA</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Funcionamento Normal</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Funcionamento Normal</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>15K</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>15K</t>
+        </is>
+      </c>
+      <c r="F169" t="n">
+        <v>0.847456</v>
+      </c>
+      <c r="G169" t="n">
+        <v>70.88735</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0.8377508</v>
+      </c>
+      <c r="I169" t="n">
+        <v>71.17295</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0.8401174</v>
+      </c>
+      <c r="K169" t="n">
+        <v>71.1027</v>
+      </c>
+      <c r="L169" t="n">
+        <v>0.8458026</v>
+      </c>
+      <c r="M169" t="n">
+        <v>70.93554</v>
+      </c>
+      <c r="N169" t="n">
+        <v>0.8433979</v>
+      </c>
+      <c r="O169" t="n">
+        <v>71.00596</v>
+      </c>
+      <c r="P169" t="n">
+        <v>0.8458026</v>
+      </c>
+      <c r="Q169" t="n">
+        <v>70.93554</v>
+      </c>
+      <c r="R169" t="n">
+        <v>0.8433979</v>
+      </c>
+      <c r="S169" t="n">
         <v>71.00596</v>
       </c>
     </row>
